--- a/docs/collections/haikai/metadata/data.xlsx
+++ b/docs/collections/haikai/metadata/data.xlsx
@@ -778,6 +778,438 @@
     <t>9</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/4fa1c816-065a-6f48-4e56-85ff2bf87a22</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/7dc5e926-6df0-6da9-18a0-459cc762a19a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/aac712be-7f0b-682a-481e-420fc9538e89</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/ef43bbdf-1c29-0e32-7f8b-76c46bb08ac9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/c7223e6a-6626-4b50-617d-6381cc364bac</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/f79f61a1-67a9-7e2b-1795-1e07fb6f373c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/be3b5264-4d5f-166e-94b2-20138b496cf6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/89f8eb95-211d-0f04-a79b-bd2f8bd4465f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/5fd91e88-48cd-7a10-449e-72ffdfa37b68</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/c381cd73-1131-575f-95be-bd92159c5334</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/d8273b57-732e-160d-17b2-149b20967c70</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/b4093e0d-6e3d-2c59-43f9-07fb7ac3365a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/2d043411-3742-4133-62f0-3307a8c22ca2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/559eaffd-1492-1b94-6175-fb2f6da3a5a2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/6bc3fe2b-2cd7-7a63-5f5d-c8921e481716</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/74921972-a6fb-1735-26a3-300698aa6097</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/34b8cd0d-1edc-a011-6721-dd687954576b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/5b7803ad-8f74-0ea3-6152-6b789fbf2c4f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/5aa5004e-495f-367a-8154-181062d29803</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/c633cae1-2aab-2528-630b-8ae1deb27ce5</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/d3466cbc-6ea8-65ae-a156-d0da0e0f4172</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/c7db9875-0774-398d-5be0-a166d2c6a609</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/9e6d3fd2-7951-9c70-a546-dbcdce883757</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/cde06131-a4a3-60e7-9a75-d711a2dd312e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/da89fb79-8e73-6252-0a92-f7883c5324bd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/78433183-7857-1c61-65a9-fca501059705</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/16aaa071-3d67-855e-175e-ef30149434bb</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/9902e869-01e1-2df4-964f-a2e66d0a31f6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/dc2fda64-8660-40e8-3f82-543ff5306baf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/a9145383-0c17-641e-9593-8a774f1a978c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/2b227d36-9e56-4e85-6321-889676e15fdd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/0f5d6c1e-78a1-5fec-8935-8dc8cf2d7146</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/230143a6-7fdf-37a3-91d7-e1fff9d35c0b</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>4fa1c816-065a-6f48-4e56-85ff2bf87a22</t>
+  </si>
+  <si>
+    <t>7dc5e926-6df0-6da9-18a0-459cc762a19a</t>
+  </si>
+  <si>
+    <t>aac712be-7f0b-682a-481e-420fc9538e89</t>
+  </si>
+  <si>
+    <t>ef43bbdf-1c29-0e32-7f8b-76c46bb08ac9</t>
+  </si>
+  <si>
+    <t>c7223e6a-6626-4b50-617d-6381cc364bac</t>
+  </si>
+  <si>
+    <t>f79f61a1-67a9-7e2b-1795-1e07fb6f373c</t>
+  </si>
+  <si>
+    <t>be3b5264-4d5f-166e-94b2-20138b496cf6</t>
+  </si>
+  <si>
+    <t>89f8eb95-211d-0f04-a79b-bd2f8bd4465f</t>
+  </si>
+  <si>
+    <t>5fd91e88-48cd-7a10-449e-72ffdfa37b68</t>
+  </si>
+  <si>
+    <t>c381cd73-1131-575f-95be-bd92159c5334</t>
+  </si>
+  <si>
+    <t>d8273b57-732e-160d-17b2-149b20967c70</t>
+  </si>
+  <si>
+    <t>b4093e0d-6e3d-2c59-43f9-07fb7ac3365a</t>
+  </si>
+  <si>
+    <t>2d043411-3742-4133-62f0-3307a8c22ca2</t>
+  </si>
+  <si>
+    <t>559eaffd-1492-1b94-6175-fb2f6da3a5a2</t>
+  </si>
+  <si>
+    <t>6bc3fe2b-2cd7-7a63-5f5d-c8921e481716</t>
+  </si>
+  <si>
+    <t>74921972-a6fb-1735-26a3-300698aa6097</t>
+  </si>
+  <si>
+    <t>34b8cd0d-1edc-a011-6721-dd687954576b</t>
+  </si>
+  <si>
+    <t>5b7803ad-8f74-0ea3-6152-6b789fbf2c4f</t>
+  </si>
+  <si>
+    <t>5aa5004e-495f-367a-8154-181062d29803</t>
+  </si>
+  <si>
+    <t>c633cae1-2aab-2528-630b-8ae1deb27ce5</t>
+  </si>
+  <si>
+    <t>d3466cbc-6ea8-65ae-a156-d0da0e0f4172</t>
+  </si>
+  <si>
+    <t>c7db9875-0774-398d-5be0-a166d2c6a609</t>
+  </si>
+  <si>
+    <t>9e6d3fd2-7951-9c70-a546-dbcdce883757</t>
+  </si>
+  <si>
+    <t>cde06131-a4a3-60e7-9a75-d711a2dd312e</t>
+  </si>
+  <si>
+    <t>da89fb79-8e73-6252-0a92-f7883c5324bd</t>
+  </si>
+  <si>
+    <t>78433183-7857-1c61-65a9-fca501059705</t>
+  </si>
+  <si>
+    <t>16aaa071-3d67-855e-175e-ef30149434bb</t>
+  </si>
+  <si>
+    <t>9902e869-01e1-2df4-964f-a2e66d0a31f6</t>
+  </si>
+  <si>
+    <t>dc2fda64-8660-40e8-3f82-543ff5306baf</t>
+  </si>
+  <si>
+    <t>a9145383-0c17-641e-9593-8a774f1a978c</t>
+  </si>
+  <si>
+    <t>2b227d36-9e56-4e85-6321-889676e15fdd</t>
+  </si>
+  <si>
+    <t>0f5d6c1e-78a1-5fec-8935-8dc8cf2d7146</t>
+  </si>
+  <si>
+    <t>230143a6-7fdf-37a3-91d7-e1fff9d35c0b</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169756</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169752</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169759</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169749</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169750</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169754</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169747</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169753</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169743</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169757</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169745</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169764</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169740</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169735</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169742</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169751</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169738</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169746</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169736</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169737</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169748</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169763</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169744</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169732</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169733</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169758</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169761</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169760</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169755</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169762</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169739</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169734</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169741</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169756/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169752/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169759/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169749/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169750/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169754/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169747/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169753/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169743/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169757/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169745/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169764/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169740/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169735/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169742/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169751/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169738/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169746/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169736/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169737/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169748/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169763/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169744/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169732/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169733/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169758/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169761/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169760/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169755/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169762/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169739/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169734/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169741/manifest</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>江戸期俳諧書</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
@@ -880,442 +1312,10 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169741/hmoku001.jpg</t>
   </si>
   <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169756/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169752/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169759/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169749/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169750/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169754/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169747/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169753/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169743/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169757/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169745/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169764/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169740/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169735/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169742/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169751/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169738/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169746/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169736/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169737/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169748/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169763/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169744/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169732/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169733/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169758/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169761/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169760/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169755/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169762/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169739/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169734/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169741/manifest</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>4fa1c816-065a-6f48-4e56-85ff2bf87a22</t>
-  </si>
-  <si>
-    <t>7dc5e926-6df0-6da9-18a0-459cc762a19a</t>
-  </si>
-  <si>
-    <t>aac712be-7f0b-682a-481e-420fc9538e89</t>
-  </si>
-  <si>
-    <t>ef43bbdf-1c29-0e32-7f8b-76c46bb08ac9</t>
-  </si>
-  <si>
-    <t>c7223e6a-6626-4b50-617d-6381cc364bac</t>
-  </si>
-  <si>
-    <t>f79f61a1-67a9-7e2b-1795-1e07fb6f373c</t>
-  </si>
-  <si>
-    <t>be3b5264-4d5f-166e-94b2-20138b496cf6</t>
-  </si>
-  <si>
-    <t>89f8eb95-211d-0f04-a79b-bd2f8bd4465f</t>
-  </si>
-  <si>
-    <t>5fd91e88-48cd-7a10-449e-72ffdfa37b68</t>
-  </si>
-  <si>
-    <t>c381cd73-1131-575f-95be-bd92159c5334</t>
-  </si>
-  <si>
-    <t>d8273b57-732e-160d-17b2-149b20967c70</t>
-  </si>
-  <si>
-    <t>b4093e0d-6e3d-2c59-43f9-07fb7ac3365a</t>
-  </si>
-  <si>
-    <t>2d043411-3742-4133-62f0-3307a8c22ca2</t>
-  </si>
-  <si>
-    <t>559eaffd-1492-1b94-6175-fb2f6da3a5a2</t>
-  </si>
-  <si>
-    <t>6bc3fe2b-2cd7-7a63-5f5d-c8921e481716</t>
-  </si>
-  <si>
-    <t>74921972-a6fb-1735-26a3-300698aa6097</t>
-  </si>
-  <si>
-    <t>34b8cd0d-1edc-a011-6721-dd687954576b</t>
-  </si>
-  <si>
-    <t>5b7803ad-8f74-0ea3-6152-6b789fbf2c4f</t>
-  </si>
-  <si>
-    <t>5aa5004e-495f-367a-8154-181062d29803</t>
-  </si>
-  <si>
-    <t>c633cae1-2aab-2528-630b-8ae1deb27ce5</t>
-  </si>
-  <si>
-    <t>d3466cbc-6ea8-65ae-a156-d0da0e0f4172</t>
-  </si>
-  <si>
-    <t>c7db9875-0774-398d-5be0-a166d2c6a609</t>
-  </si>
-  <si>
-    <t>9e6d3fd2-7951-9c70-a546-dbcdce883757</t>
-  </si>
-  <si>
-    <t>cde06131-a4a3-60e7-9a75-d711a2dd312e</t>
-  </si>
-  <si>
-    <t>da89fb79-8e73-6252-0a92-f7883c5324bd</t>
-  </si>
-  <si>
-    <t>78433183-7857-1c61-65a9-fca501059705</t>
-  </si>
-  <si>
-    <t>16aaa071-3d67-855e-175e-ef30149434bb</t>
-  </si>
-  <si>
-    <t>9902e869-01e1-2df4-964f-a2e66d0a31f6</t>
-  </si>
-  <si>
-    <t>dc2fda64-8660-40e8-3f82-543ff5306baf</t>
-  </si>
-  <si>
-    <t>a9145383-0c17-641e-9593-8a774f1a978c</t>
-  </si>
-  <si>
-    <t>2b227d36-9e56-4e85-6321-889676e15fdd</t>
-  </si>
-  <si>
-    <t>0f5d6c1e-78a1-5fec-8935-8dc8cf2d7146</t>
-  </si>
-  <si>
-    <t>230143a6-7fdf-37a3-91d7-e1fff9d35c0b</t>
-  </si>
-  <si>
-    <t>所蔵</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>江戸期俳諧書</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/4fa1c816-065a-6f48-4e56-85ff2bf87a22</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/7dc5e926-6df0-6da9-18a0-459cc762a19a</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/aac712be-7f0b-682a-481e-420fc9538e89</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/ef43bbdf-1c29-0e32-7f8b-76c46bb08ac9</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/c7223e6a-6626-4b50-617d-6381cc364bac</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/f79f61a1-67a9-7e2b-1795-1e07fb6f373c</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/be3b5264-4d5f-166e-94b2-20138b496cf6</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/89f8eb95-211d-0f04-a79b-bd2f8bd4465f</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/5fd91e88-48cd-7a10-449e-72ffdfa37b68</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/c381cd73-1131-575f-95be-bd92159c5334</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/d8273b57-732e-160d-17b2-149b20967c70</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/b4093e0d-6e3d-2c59-43f9-07fb7ac3365a</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/2d043411-3742-4133-62f0-3307a8c22ca2</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/559eaffd-1492-1b94-6175-fb2f6da3a5a2</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/6bc3fe2b-2cd7-7a63-5f5d-c8921e481716</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/74921972-a6fb-1735-26a3-300698aa6097</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/34b8cd0d-1edc-a011-6721-dd687954576b</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/5b7803ad-8f74-0ea3-6152-6b789fbf2c4f</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/5aa5004e-495f-367a-8154-181062d29803</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/c633cae1-2aab-2528-630b-8ae1deb27ce5</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/d3466cbc-6ea8-65ae-a156-d0da0e0f4172</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/c7db9875-0774-398d-5be0-a166d2c6a609</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/9e6d3fd2-7951-9c70-a546-dbcdce883757</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/cde06131-a4a3-60e7-9a75-d711a2dd312e</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/da89fb79-8e73-6252-0a92-f7883c5324bd</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/78433183-7857-1c61-65a9-fca501059705</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/16aaa071-3d67-855e-175e-ef30149434bb</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/9902e869-01e1-2df4-964f-a2e66d0a31f6</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/dc2fda64-8660-40e8-3f82-543ff5306baf</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/a9145383-0c17-641e-9593-8a774f1a978c</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/2b227d36-9e56-4e85-6321-889676e15fdd</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/0f5d6c1e-78a1-5fec-8935-8dc8cf2d7146</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/230143a6-7fdf-37a3-91d7-e1fff9d35c0b</t>
-  </si>
-  <si>
     <t>利用条件</t>
   </si>
   <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
-  </si>
-  <si>
-    <t>機械可読データ</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169756</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169752</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169759</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169749</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169750</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169754</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169747</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169753</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169743</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169757</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169745</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169764</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169740</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169735</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169742</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169751</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169738</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169746</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169736</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169737</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169748</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169763</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169744</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169732</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169733</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169758</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169761</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169760</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169755</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169762</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169739</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169734</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169741</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>年</t>
   </si>
 </sst>
 </file>
@@ -1700,34 +1700,34 @@
         <v>254</v>
       </c>
       <c r="M1" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="O1" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="P1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="Q1" t="s">
         <v>359</v>
       </c>
       <c r="R1" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="S1" t="s">
         <v>395</v>
       </c>
       <c r="T1" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="U1" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="V1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1755,32 +1755,32 @@
       <c r="K2" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="N2" t="s">
-        <v>323</v>
-      </c>
-      <c r="P2" t="s">
-        <v>358</v>
+        <v>256</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" t="s">
+        <v>292</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>360</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>430</v>
+        <v>362</v>
+      </c>
+      <c r="T2" t="s">
+        <v>397</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>432</v>
+        <v>399</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1811,32 +1811,32 @@
       <c r="K3" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="N3" t="s">
-        <v>324</v>
-      </c>
-      <c r="P3" t="s">
-        <v>358</v>
+      <c r="O3" t="s">
+        <v>293</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="T3" t="s">
         <v>397</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>432</v>
+        <v>400</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1867,32 +1867,32 @@
       <c r="K4" t="s">
         <v>223</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N4" t="s">
-        <v>325</v>
-      </c>
-      <c r="P4" t="s">
-        <v>358</v>
+        <v>258</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>430</v>
+        <v>364</v>
+      </c>
+      <c r="T4" t="s">
+        <v>397</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>432</v>
+        <v>401</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1923,32 +1923,32 @@
       <c r="K5" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="N5" t="s">
-        <v>326</v>
-      </c>
-      <c r="P5" t="s">
-        <v>358</v>
+        <v>259</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O5" t="s">
+        <v>295</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>430</v>
+        <v>365</v>
+      </c>
+      <c r="T5" t="s">
+        <v>397</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>432</v>
+        <v>402</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1979,32 +1979,32 @@
       <c r="K6" t="s">
         <v>225</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N6" t="s">
-        <v>327</v>
-      </c>
-      <c r="P6" t="s">
-        <v>358</v>
+        <v>260</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O6" t="s">
+        <v>296</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>430</v>
+        <v>366</v>
+      </c>
+      <c r="T6" t="s">
+        <v>397</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -2041,32 +2041,32 @@
       <c r="K7" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="N7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P7" t="s">
-        <v>358</v>
+        <v>261</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>430</v>
+        <v>367</v>
+      </c>
+      <c r="T7" t="s">
+        <v>397</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>432</v>
+        <v>404</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2097,32 +2097,32 @@
       <c r="K8" t="s">
         <v>227</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="N8" t="s">
-        <v>329</v>
-      </c>
-      <c r="P8" t="s">
-        <v>358</v>
+        <v>262</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>430</v>
+        <v>368</v>
+      </c>
+      <c r="T8" t="s">
+        <v>397</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>432</v>
+        <v>405</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -2156,32 +2156,32 @@
       <c r="K9" t="s">
         <v>228</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="N9" t="s">
-        <v>330</v>
-      </c>
-      <c r="P9" t="s">
-        <v>358</v>
+        <v>263</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O9" t="s">
+        <v>299</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>430</v>
+        <v>369</v>
+      </c>
+      <c r="T9" t="s">
+        <v>397</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>432</v>
+        <v>406</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -2215,32 +2215,32 @@
       <c r="K10" t="s">
         <v>229</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="N10" t="s">
-        <v>331</v>
-      </c>
-      <c r="P10" t="s">
-        <v>358</v>
+        <v>264</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O10" t="s">
+        <v>300</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>430</v>
+        <v>370</v>
+      </c>
+      <c r="T10" t="s">
+        <v>397</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>432</v>
+        <v>407</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -2271,32 +2271,32 @@
       <c r="K11" t="s">
         <v>230</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N11" t="s">
-        <v>332</v>
-      </c>
-      <c r="P11" t="s">
-        <v>358</v>
+        <v>265</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O11" t="s">
+        <v>301</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>430</v>
+        <v>371</v>
+      </c>
+      <c r="T11" t="s">
+        <v>397</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>432</v>
+        <v>408</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -2327,32 +2327,32 @@
       <c r="K12" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="N12" t="s">
-        <v>333</v>
-      </c>
-      <c r="P12" t="s">
-        <v>358</v>
+        <v>266</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O12" t="s">
+        <v>302</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>430</v>
+        <v>372</v>
+      </c>
+      <c r="T12" t="s">
+        <v>397</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>432</v>
+        <v>409</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -2383,32 +2383,32 @@
       <c r="K13" t="s">
         <v>232</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N13" t="s">
-        <v>334</v>
-      </c>
-      <c r="P13" t="s">
-        <v>358</v>
+        <v>267</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O13" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>430</v>
+        <v>373</v>
+      </c>
+      <c r="T13" t="s">
+        <v>397</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>432</v>
+        <v>410</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -2439,32 +2439,32 @@
       <c r="K14" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="N14" t="s">
-        <v>335</v>
-      </c>
-      <c r="P14" t="s">
-        <v>358</v>
+        <v>268</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O14" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>430</v>
+        <v>374</v>
+      </c>
+      <c r="T14" t="s">
+        <v>397</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>432</v>
+        <v>411</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -2495,32 +2495,32 @@
       <c r="K15" t="s">
         <v>234</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="N15" t="s">
-        <v>336</v>
-      </c>
-      <c r="P15" t="s">
-        <v>358</v>
+        <v>269</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O15" t="s">
+        <v>305</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>430</v>
+        <v>375</v>
+      </c>
+      <c r="T15" t="s">
+        <v>397</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>432</v>
+        <v>412</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -2551,35 +2551,35 @@
       <c r="K16" t="s">
         <v>235</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="N16" t="s">
-        <v>337</v>
-      </c>
-      <c r="P16" t="s">
-        <v>358</v>
+        <v>270</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O16" t="s">
+        <v>306</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>430</v>
+        <v>376</v>
+      </c>
+      <c r="T16" t="s">
+        <v>397</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2607,35 +2607,35 @@
       <c r="K17" t="s">
         <v>236</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="N17" t="s">
-        <v>338</v>
-      </c>
-      <c r="P17" t="s">
-        <v>358</v>
+        <v>271</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O17" t="s">
+        <v>307</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>430</v>
+        <v>377</v>
+      </c>
+      <c r="T17" t="s">
+        <v>397</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>432</v>
+        <v>414</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2666,35 +2666,35 @@
       <c r="K18" t="s">
         <v>237</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="N18" t="s">
-        <v>339</v>
-      </c>
-      <c r="P18" t="s">
-        <v>358</v>
+        <v>272</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O18" t="s">
+        <v>308</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>430</v>
+        <v>378</v>
+      </c>
+      <c r="T18" t="s">
+        <v>397</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>432</v>
+        <v>415</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2722,35 +2722,35 @@
       <c r="K19" t="s">
         <v>238</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="N19" t="s">
-        <v>340</v>
-      </c>
-      <c r="P19" t="s">
-        <v>358</v>
+        <v>273</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O19" t="s">
+        <v>309</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>430</v>
+        <v>379</v>
+      </c>
+      <c r="T19" t="s">
+        <v>397</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>432</v>
+        <v>416</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2778,35 +2778,35 @@
       <c r="K20" t="s">
         <v>239</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N20" t="s">
-        <v>341</v>
-      </c>
-      <c r="P20" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O20" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>430</v>
+        <v>380</v>
+      </c>
+      <c r="T20" t="s">
+        <v>397</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>432</v>
+        <v>417</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2837,35 +2837,35 @@
       <c r="K21" t="s">
         <v>240</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="N21" t="s">
-        <v>342</v>
-      </c>
-      <c r="P21" t="s">
-        <v>358</v>
+        <v>275</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O21" t="s">
+        <v>311</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>430</v>
+        <v>381</v>
+      </c>
+      <c r="T21" t="s">
+        <v>397</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>432</v>
+        <v>418</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2893,35 +2893,35 @@
       <c r="K22" t="s">
         <v>241</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="N22" t="s">
-        <v>343</v>
-      </c>
-      <c r="P22" t="s">
-        <v>358</v>
+        <v>276</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O22" t="s">
+        <v>312</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>430</v>
+        <v>382</v>
+      </c>
+      <c r="T22" t="s">
+        <v>397</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>432</v>
+        <v>419</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2949,35 +2949,35 @@
       <c r="K23" t="s">
         <v>242</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N23" t="s">
-        <v>344</v>
-      </c>
-      <c r="P23" t="s">
-        <v>358</v>
+        <v>277</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O23" t="s">
+        <v>313</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>430</v>
+        <v>383</v>
+      </c>
+      <c r="T23" t="s">
+        <v>397</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3005,35 +3005,35 @@
       <c r="K24" t="s">
         <v>243</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N24" t="s">
-        <v>345</v>
-      </c>
-      <c r="P24" t="s">
-        <v>358</v>
+        <v>278</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O24" t="s">
+        <v>314</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>430</v>
+        <v>384</v>
+      </c>
+      <c r="T24" t="s">
+        <v>397</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3061,35 +3061,35 @@
       <c r="K25" t="s">
         <v>244</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="N25" t="s">
-        <v>346</v>
-      </c>
-      <c r="P25" t="s">
-        <v>358</v>
+        <v>279</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O25" t="s">
+        <v>315</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>430</v>
+        <v>385</v>
+      </c>
+      <c r="T25" t="s">
+        <v>397</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3117,35 +3117,35 @@
       <c r="K26" t="s">
         <v>245</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="N26" t="s">
-        <v>347</v>
-      </c>
-      <c r="P26" t="s">
-        <v>358</v>
+        <v>280</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O26" t="s">
+        <v>316</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>430</v>
+        <v>386</v>
+      </c>
+      <c r="T26" t="s">
+        <v>397</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3176,35 +3176,35 @@
       <c r="K27" t="s">
         <v>246</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="N27" t="s">
-        <v>348</v>
-      </c>
-      <c r="P27" t="s">
-        <v>358</v>
+        <v>281</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O27" t="s">
+        <v>317</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>430</v>
+        <v>387</v>
+      </c>
+      <c r="T27" t="s">
+        <v>397</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3226,35 +3226,35 @@
       <c r="K28" t="s">
         <v>247</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="M28" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="N28" t="s">
-        <v>349</v>
-      </c>
-      <c r="P28" t="s">
-        <v>358</v>
+        <v>282</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O28" t="s">
+        <v>318</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>430</v>
+        <v>388</v>
+      </c>
+      <c r="T28" t="s">
+        <v>397</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3282,35 +3282,35 @@
       <c r="K29" t="s">
         <v>248</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N29" t="s">
-        <v>350</v>
-      </c>
-      <c r="P29" t="s">
-        <v>358</v>
+        <v>283</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O29" t="s">
+        <v>319</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>430</v>
+        <v>389</v>
+      </c>
+      <c r="T29" t="s">
+        <v>397</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3341,35 +3341,35 @@
       <c r="K30" t="s">
         <v>249</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="M30" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N30" t="s">
-        <v>351</v>
-      </c>
-      <c r="P30" t="s">
-        <v>358</v>
+        <v>284</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O30" t="s">
+        <v>320</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>430</v>
+        <v>390</v>
+      </c>
+      <c r="T30" t="s">
+        <v>397</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3400,35 +3400,35 @@
       <c r="K31" t="s">
         <v>250</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="N31" t="s">
-        <v>352</v>
-      </c>
-      <c r="P31" t="s">
-        <v>358</v>
+        <v>285</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" t="s">
+        <v>321</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>430</v>
+        <v>391</v>
+      </c>
+      <c r="T31" t="s">
+        <v>397</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3459,35 +3459,35 @@
       <c r="K32" t="s">
         <v>251</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="M32" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N32" t="s">
-        <v>353</v>
-      </c>
-      <c r="P32" t="s">
-        <v>358</v>
+        <v>286</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>322</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>430</v>
+        <v>392</v>
+      </c>
+      <c r="T32" t="s">
+        <v>397</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3515,35 +3515,35 @@
       <c r="K33" t="s">
         <v>252</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="M33" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="N33" t="s">
-        <v>354</v>
-      </c>
-      <c r="P33" t="s">
-        <v>358</v>
+        <v>287</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O33" t="s">
+        <v>323</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="T33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="T33" t="s">
+        <v>397</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="U33" s="1" t="s">
-        <v>432</v>
+      <c r="V33" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3571,267 +3571,267 @@
       <c r="K34" t="s">
         <v>253</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="M34" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="N34" t="s">
-        <v>355</v>
-      </c>
-      <c r="P34" t="s">
+        <v>288</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O34" t="s">
+        <v>324</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>430</v>
+      <c r="T34" t="s">
+        <v>397</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="Q2" r:id="rId3"/>
-    <hyperlink ref="R2" r:id="rId4"/>
-    <hyperlink ref="S2" r:id="rId5"/>
-    <hyperlink ref="T2" r:id="rId6"/>
-    <hyperlink ref="U2" r:id="rId7" location="rightToLeftDirection"/>
-    <hyperlink ref="L3" r:id="rId8"/>
-    <hyperlink ref="M3" r:id="rId9"/>
-    <hyperlink ref="Q3" r:id="rId10"/>
-    <hyperlink ref="R3" r:id="rId11"/>
-    <hyperlink ref="S3" r:id="rId12"/>
-    <hyperlink ref="T3" r:id="rId13"/>
-    <hyperlink ref="U3" r:id="rId14" location="rightToLeftDirection"/>
-    <hyperlink ref="L4" r:id="rId15"/>
-    <hyperlink ref="M4" r:id="rId16"/>
-    <hyperlink ref="Q4" r:id="rId17"/>
-    <hyperlink ref="R4" r:id="rId18"/>
-    <hyperlink ref="S4" r:id="rId19"/>
-    <hyperlink ref="T4" r:id="rId20"/>
-    <hyperlink ref="U4" r:id="rId21" location="rightToLeftDirection"/>
-    <hyperlink ref="L5" r:id="rId22"/>
-    <hyperlink ref="M5" r:id="rId23"/>
-    <hyperlink ref="Q5" r:id="rId24"/>
-    <hyperlink ref="R5" r:id="rId25"/>
-    <hyperlink ref="S5" r:id="rId26"/>
-    <hyperlink ref="T5" r:id="rId27"/>
-    <hyperlink ref="U5" r:id="rId28" location="rightToLeftDirection"/>
-    <hyperlink ref="L6" r:id="rId29"/>
-    <hyperlink ref="M6" r:id="rId30"/>
-    <hyperlink ref="Q6" r:id="rId31"/>
-    <hyperlink ref="R6" r:id="rId32"/>
-    <hyperlink ref="S6" r:id="rId33"/>
-    <hyperlink ref="T6" r:id="rId34"/>
-    <hyperlink ref="U6" r:id="rId35" location="rightToLeftDirection"/>
-    <hyperlink ref="L7" r:id="rId36"/>
-    <hyperlink ref="M7" r:id="rId37"/>
-    <hyperlink ref="Q7" r:id="rId38"/>
-    <hyperlink ref="R7" r:id="rId39"/>
-    <hyperlink ref="S7" r:id="rId40"/>
-    <hyperlink ref="T7" r:id="rId41"/>
-    <hyperlink ref="U7" r:id="rId42" location="rightToLeftDirection"/>
-    <hyperlink ref="L8" r:id="rId43"/>
-    <hyperlink ref="M8" r:id="rId44"/>
-    <hyperlink ref="Q8" r:id="rId45"/>
-    <hyperlink ref="R8" r:id="rId46"/>
-    <hyperlink ref="S8" r:id="rId47"/>
-    <hyperlink ref="T8" r:id="rId48"/>
-    <hyperlink ref="U8" r:id="rId49" location="rightToLeftDirection"/>
-    <hyperlink ref="L9" r:id="rId50"/>
-    <hyperlink ref="M9" r:id="rId51"/>
-    <hyperlink ref="Q9" r:id="rId52"/>
-    <hyperlink ref="R9" r:id="rId53"/>
-    <hyperlink ref="S9" r:id="rId54"/>
-    <hyperlink ref="T9" r:id="rId55"/>
-    <hyperlink ref="U9" r:id="rId56" location="rightToLeftDirection"/>
-    <hyperlink ref="L10" r:id="rId57"/>
-    <hyperlink ref="M10" r:id="rId58"/>
-    <hyperlink ref="Q10" r:id="rId59"/>
-    <hyperlink ref="R10" r:id="rId60"/>
-    <hyperlink ref="S10" r:id="rId61"/>
-    <hyperlink ref="T10" r:id="rId62"/>
-    <hyperlink ref="U10" r:id="rId63" location="rightToLeftDirection"/>
-    <hyperlink ref="L11" r:id="rId64"/>
-    <hyperlink ref="M11" r:id="rId65"/>
-    <hyperlink ref="Q11" r:id="rId66"/>
-    <hyperlink ref="R11" r:id="rId67"/>
-    <hyperlink ref="S11" r:id="rId68"/>
-    <hyperlink ref="T11" r:id="rId69"/>
-    <hyperlink ref="U11" r:id="rId70" location="rightToLeftDirection"/>
-    <hyperlink ref="L12" r:id="rId71"/>
-    <hyperlink ref="M12" r:id="rId72"/>
-    <hyperlink ref="Q12" r:id="rId73"/>
-    <hyperlink ref="R12" r:id="rId74"/>
-    <hyperlink ref="S12" r:id="rId75"/>
-    <hyperlink ref="T12" r:id="rId76"/>
-    <hyperlink ref="U12" r:id="rId77" location="rightToLeftDirection"/>
-    <hyperlink ref="L13" r:id="rId78"/>
-    <hyperlink ref="M13" r:id="rId79"/>
-    <hyperlink ref="Q13" r:id="rId80"/>
-    <hyperlink ref="R13" r:id="rId81"/>
-    <hyperlink ref="S13" r:id="rId82"/>
-    <hyperlink ref="T13" r:id="rId83"/>
-    <hyperlink ref="U13" r:id="rId84" location="rightToLeftDirection"/>
-    <hyperlink ref="L14" r:id="rId85"/>
-    <hyperlink ref="M14" r:id="rId86"/>
-    <hyperlink ref="Q14" r:id="rId87"/>
-    <hyperlink ref="R14" r:id="rId88"/>
-    <hyperlink ref="S14" r:id="rId89"/>
-    <hyperlink ref="T14" r:id="rId90"/>
-    <hyperlink ref="U14" r:id="rId91" location="rightToLeftDirection"/>
-    <hyperlink ref="L15" r:id="rId92"/>
-    <hyperlink ref="M15" r:id="rId93"/>
-    <hyperlink ref="Q15" r:id="rId94"/>
-    <hyperlink ref="R15" r:id="rId95"/>
-    <hyperlink ref="S15" r:id="rId96"/>
-    <hyperlink ref="T15" r:id="rId97"/>
-    <hyperlink ref="U15" r:id="rId98" location="rightToLeftDirection"/>
-    <hyperlink ref="L16" r:id="rId99"/>
-    <hyperlink ref="M16" r:id="rId100"/>
-    <hyperlink ref="Q16" r:id="rId101"/>
-    <hyperlink ref="R16" r:id="rId102"/>
-    <hyperlink ref="S16" r:id="rId103"/>
-    <hyperlink ref="T16" r:id="rId104"/>
-    <hyperlink ref="U16" r:id="rId105" location="rightToLeftDirection"/>
-    <hyperlink ref="L17" r:id="rId106"/>
-    <hyperlink ref="M17" r:id="rId107"/>
-    <hyperlink ref="Q17" r:id="rId108"/>
-    <hyperlink ref="R17" r:id="rId109"/>
-    <hyperlink ref="S17" r:id="rId110"/>
-    <hyperlink ref="T17" r:id="rId111"/>
-    <hyperlink ref="U17" r:id="rId112" location="rightToLeftDirection"/>
-    <hyperlink ref="L18" r:id="rId113"/>
-    <hyperlink ref="M18" r:id="rId114"/>
-    <hyperlink ref="Q18" r:id="rId115"/>
-    <hyperlink ref="R18" r:id="rId116"/>
-    <hyperlink ref="S18" r:id="rId117"/>
-    <hyperlink ref="T18" r:id="rId118"/>
-    <hyperlink ref="U18" r:id="rId119" location="rightToLeftDirection"/>
-    <hyperlink ref="L19" r:id="rId120"/>
-    <hyperlink ref="M19" r:id="rId121"/>
-    <hyperlink ref="Q19" r:id="rId122"/>
-    <hyperlink ref="R19" r:id="rId123"/>
-    <hyperlink ref="S19" r:id="rId124"/>
-    <hyperlink ref="T19" r:id="rId125"/>
-    <hyperlink ref="U19" r:id="rId126" location="rightToLeftDirection"/>
-    <hyperlink ref="L20" r:id="rId127"/>
-    <hyperlink ref="M20" r:id="rId128"/>
-    <hyperlink ref="Q20" r:id="rId129"/>
-    <hyperlink ref="R20" r:id="rId130"/>
-    <hyperlink ref="S20" r:id="rId131"/>
-    <hyperlink ref="T20" r:id="rId132"/>
-    <hyperlink ref="U20" r:id="rId133" location="rightToLeftDirection"/>
-    <hyperlink ref="L21" r:id="rId134"/>
-    <hyperlink ref="M21" r:id="rId135"/>
-    <hyperlink ref="Q21" r:id="rId136"/>
-    <hyperlink ref="R21" r:id="rId137"/>
-    <hyperlink ref="S21" r:id="rId138"/>
-    <hyperlink ref="T21" r:id="rId139"/>
-    <hyperlink ref="U21" r:id="rId140" location="rightToLeftDirection"/>
-    <hyperlink ref="L22" r:id="rId141"/>
-    <hyperlink ref="M22" r:id="rId142"/>
-    <hyperlink ref="Q22" r:id="rId143"/>
-    <hyperlink ref="R22" r:id="rId144"/>
-    <hyperlink ref="S22" r:id="rId145"/>
-    <hyperlink ref="T22" r:id="rId146"/>
-    <hyperlink ref="U22" r:id="rId147" location="rightToLeftDirection"/>
-    <hyperlink ref="L23" r:id="rId148"/>
-    <hyperlink ref="M23" r:id="rId149"/>
-    <hyperlink ref="Q23" r:id="rId150"/>
-    <hyperlink ref="R23" r:id="rId151"/>
-    <hyperlink ref="S23" r:id="rId152"/>
-    <hyperlink ref="T23" r:id="rId153"/>
-    <hyperlink ref="U23" r:id="rId154" location="rightToLeftDirection"/>
-    <hyperlink ref="L24" r:id="rId155"/>
-    <hyperlink ref="M24" r:id="rId156"/>
-    <hyperlink ref="Q24" r:id="rId157"/>
-    <hyperlink ref="R24" r:id="rId158"/>
-    <hyperlink ref="S24" r:id="rId159"/>
-    <hyperlink ref="T24" r:id="rId160"/>
-    <hyperlink ref="U24" r:id="rId161" location="rightToLeftDirection"/>
-    <hyperlink ref="L25" r:id="rId162"/>
-    <hyperlink ref="M25" r:id="rId163"/>
-    <hyperlink ref="Q25" r:id="rId164"/>
-    <hyperlink ref="R25" r:id="rId165"/>
-    <hyperlink ref="S25" r:id="rId166"/>
-    <hyperlink ref="T25" r:id="rId167"/>
-    <hyperlink ref="U25" r:id="rId168" location="rightToLeftDirection"/>
-    <hyperlink ref="L26" r:id="rId169"/>
-    <hyperlink ref="M26" r:id="rId170"/>
-    <hyperlink ref="Q26" r:id="rId171"/>
-    <hyperlink ref="R26" r:id="rId172"/>
-    <hyperlink ref="S26" r:id="rId173"/>
-    <hyperlink ref="T26" r:id="rId174"/>
-    <hyperlink ref="U26" r:id="rId175" location="rightToLeftDirection"/>
-    <hyperlink ref="L27" r:id="rId176"/>
-    <hyperlink ref="M27" r:id="rId177"/>
-    <hyperlink ref="Q27" r:id="rId178"/>
-    <hyperlink ref="R27" r:id="rId179"/>
-    <hyperlink ref="S27" r:id="rId180"/>
-    <hyperlink ref="T27" r:id="rId181"/>
-    <hyperlink ref="U27" r:id="rId182" location="rightToLeftDirection"/>
-    <hyperlink ref="L28" r:id="rId183"/>
-    <hyperlink ref="M28" r:id="rId184"/>
-    <hyperlink ref="Q28" r:id="rId185"/>
-    <hyperlink ref="R28" r:id="rId186"/>
-    <hyperlink ref="S28" r:id="rId187"/>
-    <hyperlink ref="T28" r:id="rId188"/>
-    <hyperlink ref="U28" r:id="rId189" location="rightToLeftDirection"/>
-    <hyperlink ref="L29" r:id="rId190"/>
-    <hyperlink ref="M29" r:id="rId191"/>
-    <hyperlink ref="Q29" r:id="rId192"/>
-    <hyperlink ref="R29" r:id="rId193"/>
-    <hyperlink ref="S29" r:id="rId194"/>
-    <hyperlink ref="T29" r:id="rId195"/>
-    <hyperlink ref="U29" r:id="rId196" location="rightToLeftDirection"/>
-    <hyperlink ref="L30" r:id="rId197"/>
-    <hyperlink ref="M30" r:id="rId198"/>
-    <hyperlink ref="Q30" r:id="rId199"/>
-    <hyperlink ref="R30" r:id="rId200"/>
-    <hyperlink ref="S30" r:id="rId201"/>
-    <hyperlink ref="T30" r:id="rId202"/>
-    <hyperlink ref="U30" r:id="rId203" location="rightToLeftDirection"/>
-    <hyperlink ref="L31" r:id="rId204"/>
-    <hyperlink ref="M31" r:id="rId205"/>
-    <hyperlink ref="Q31" r:id="rId206"/>
-    <hyperlink ref="R31" r:id="rId207"/>
-    <hyperlink ref="S31" r:id="rId208"/>
-    <hyperlink ref="T31" r:id="rId209"/>
-    <hyperlink ref="U31" r:id="rId210" location="rightToLeftDirection"/>
-    <hyperlink ref="L32" r:id="rId211"/>
-    <hyperlink ref="M32" r:id="rId212"/>
-    <hyperlink ref="Q32" r:id="rId213"/>
-    <hyperlink ref="R32" r:id="rId214"/>
-    <hyperlink ref="S32" r:id="rId215"/>
-    <hyperlink ref="T32" r:id="rId216"/>
-    <hyperlink ref="U32" r:id="rId217" location="rightToLeftDirection"/>
-    <hyperlink ref="L33" r:id="rId218"/>
-    <hyperlink ref="M33" r:id="rId219"/>
-    <hyperlink ref="Q33" r:id="rId220"/>
-    <hyperlink ref="R33" r:id="rId221"/>
-    <hyperlink ref="S33" r:id="rId222"/>
-    <hyperlink ref="T33" r:id="rId223"/>
-    <hyperlink ref="U33" r:id="rId224" location="rightToLeftDirection"/>
-    <hyperlink ref="L34" r:id="rId225"/>
-    <hyperlink ref="M34" r:id="rId226"/>
-    <hyperlink ref="Q34" r:id="rId227"/>
-    <hyperlink ref="R34" r:id="rId228"/>
-    <hyperlink ref="S34" r:id="rId229"/>
-    <hyperlink ref="T34" r:id="rId230"/>
-    <hyperlink ref="U34" r:id="rId231" location="rightToLeftDirection"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2" location="rightToLeftDirection"/>
+    <hyperlink ref="P2" r:id="rId3"/>
+    <hyperlink ref="Q2" r:id="rId4"/>
+    <hyperlink ref="R2" r:id="rId5"/>
+    <hyperlink ref="U2" r:id="rId6"/>
+    <hyperlink ref="V2" r:id="rId7"/>
+    <hyperlink ref="M3" r:id="rId8"/>
+    <hyperlink ref="N3" r:id="rId9" location="rightToLeftDirection"/>
+    <hyperlink ref="P3" r:id="rId10"/>
+    <hyperlink ref="Q3" r:id="rId11"/>
+    <hyperlink ref="R3" r:id="rId12"/>
+    <hyperlink ref="U3" r:id="rId13"/>
+    <hyperlink ref="V3" r:id="rId14"/>
+    <hyperlink ref="M4" r:id="rId15"/>
+    <hyperlink ref="N4" r:id="rId16" location="rightToLeftDirection"/>
+    <hyperlink ref="P4" r:id="rId17"/>
+    <hyperlink ref="Q4" r:id="rId18"/>
+    <hyperlink ref="R4" r:id="rId19"/>
+    <hyperlink ref="U4" r:id="rId20"/>
+    <hyperlink ref="V4" r:id="rId21"/>
+    <hyperlink ref="M5" r:id="rId22"/>
+    <hyperlink ref="N5" r:id="rId23" location="rightToLeftDirection"/>
+    <hyperlink ref="P5" r:id="rId24"/>
+    <hyperlink ref="Q5" r:id="rId25"/>
+    <hyperlink ref="R5" r:id="rId26"/>
+    <hyperlink ref="U5" r:id="rId27"/>
+    <hyperlink ref="V5" r:id="rId28"/>
+    <hyperlink ref="M6" r:id="rId29"/>
+    <hyperlink ref="N6" r:id="rId30" location="rightToLeftDirection"/>
+    <hyperlink ref="P6" r:id="rId31"/>
+    <hyperlink ref="Q6" r:id="rId32"/>
+    <hyperlink ref="R6" r:id="rId33"/>
+    <hyperlink ref="U6" r:id="rId34"/>
+    <hyperlink ref="V6" r:id="rId35"/>
+    <hyperlink ref="M7" r:id="rId36"/>
+    <hyperlink ref="N7" r:id="rId37" location="rightToLeftDirection"/>
+    <hyperlink ref="P7" r:id="rId38"/>
+    <hyperlink ref="Q7" r:id="rId39"/>
+    <hyperlink ref="R7" r:id="rId40"/>
+    <hyperlink ref="U7" r:id="rId41"/>
+    <hyperlink ref="V7" r:id="rId42"/>
+    <hyperlink ref="M8" r:id="rId43"/>
+    <hyperlink ref="N8" r:id="rId44" location="rightToLeftDirection"/>
+    <hyperlink ref="P8" r:id="rId45"/>
+    <hyperlink ref="Q8" r:id="rId46"/>
+    <hyperlink ref="R8" r:id="rId47"/>
+    <hyperlink ref="U8" r:id="rId48"/>
+    <hyperlink ref="V8" r:id="rId49"/>
+    <hyperlink ref="M9" r:id="rId50"/>
+    <hyperlink ref="N9" r:id="rId51" location="rightToLeftDirection"/>
+    <hyperlink ref="P9" r:id="rId52"/>
+    <hyperlink ref="Q9" r:id="rId53"/>
+    <hyperlink ref="R9" r:id="rId54"/>
+    <hyperlink ref="U9" r:id="rId55"/>
+    <hyperlink ref="V9" r:id="rId56"/>
+    <hyperlink ref="M10" r:id="rId57"/>
+    <hyperlink ref="N10" r:id="rId58" location="rightToLeftDirection"/>
+    <hyperlink ref="P10" r:id="rId59"/>
+    <hyperlink ref="Q10" r:id="rId60"/>
+    <hyperlink ref="R10" r:id="rId61"/>
+    <hyperlink ref="U10" r:id="rId62"/>
+    <hyperlink ref="V10" r:id="rId63"/>
+    <hyperlink ref="M11" r:id="rId64"/>
+    <hyperlink ref="N11" r:id="rId65" location="rightToLeftDirection"/>
+    <hyperlink ref="P11" r:id="rId66"/>
+    <hyperlink ref="Q11" r:id="rId67"/>
+    <hyperlink ref="R11" r:id="rId68"/>
+    <hyperlink ref="U11" r:id="rId69"/>
+    <hyperlink ref="V11" r:id="rId70"/>
+    <hyperlink ref="M12" r:id="rId71"/>
+    <hyperlink ref="N12" r:id="rId72" location="rightToLeftDirection"/>
+    <hyperlink ref="P12" r:id="rId73"/>
+    <hyperlink ref="Q12" r:id="rId74"/>
+    <hyperlink ref="R12" r:id="rId75"/>
+    <hyperlink ref="U12" r:id="rId76"/>
+    <hyperlink ref="V12" r:id="rId77"/>
+    <hyperlink ref="M13" r:id="rId78"/>
+    <hyperlink ref="N13" r:id="rId79" location="rightToLeftDirection"/>
+    <hyperlink ref="P13" r:id="rId80"/>
+    <hyperlink ref="Q13" r:id="rId81"/>
+    <hyperlink ref="R13" r:id="rId82"/>
+    <hyperlink ref="U13" r:id="rId83"/>
+    <hyperlink ref="V13" r:id="rId84"/>
+    <hyperlink ref="M14" r:id="rId85"/>
+    <hyperlink ref="N14" r:id="rId86" location="rightToLeftDirection"/>
+    <hyperlink ref="P14" r:id="rId87"/>
+    <hyperlink ref="Q14" r:id="rId88"/>
+    <hyperlink ref="R14" r:id="rId89"/>
+    <hyperlink ref="U14" r:id="rId90"/>
+    <hyperlink ref="V14" r:id="rId91"/>
+    <hyperlink ref="M15" r:id="rId92"/>
+    <hyperlink ref="N15" r:id="rId93" location="rightToLeftDirection"/>
+    <hyperlink ref="P15" r:id="rId94"/>
+    <hyperlink ref="Q15" r:id="rId95"/>
+    <hyperlink ref="R15" r:id="rId96"/>
+    <hyperlink ref="U15" r:id="rId97"/>
+    <hyperlink ref="V15" r:id="rId98"/>
+    <hyperlink ref="M16" r:id="rId99"/>
+    <hyperlink ref="N16" r:id="rId100" location="rightToLeftDirection"/>
+    <hyperlink ref="P16" r:id="rId101"/>
+    <hyperlink ref="Q16" r:id="rId102"/>
+    <hyperlink ref="R16" r:id="rId103"/>
+    <hyperlink ref="U16" r:id="rId104"/>
+    <hyperlink ref="V16" r:id="rId105"/>
+    <hyperlink ref="M17" r:id="rId106"/>
+    <hyperlink ref="N17" r:id="rId107" location="rightToLeftDirection"/>
+    <hyperlink ref="P17" r:id="rId108"/>
+    <hyperlink ref="Q17" r:id="rId109"/>
+    <hyperlink ref="R17" r:id="rId110"/>
+    <hyperlink ref="U17" r:id="rId111"/>
+    <hyperlink ref="V17" r:id="rId112"/>
+    <hyperlink ref="M18" r:id="rId113"/>
+    <hyperlink ref="N18" r:id="rId114" location="rightToLeftDirection"/>
+    <hyperlink ref="P18" r:id="rId115"/>
+    <hyperlink ref="Q18" r:id="rId116"/>
+    <hyperlink ref="R18" r:id="rId117"/>
+    <hyperlink ref="U18" r:id="rId118"/>
+    <hyperlink ref="V18" r:id="rId119"/>
+    <hyperlink ref="M19" r:id="rId120"/>
+    <hyperlink ref="N19" r:id="rId121" location="rightToLeftDirection"/>
+    <hyperlink ref="P19" r:id="rId122"/>
+    <hyperlink ref="Q19" r:id="rId123"/>
+    <hyperlink ref="R19" r:id="rId124"/>
+    <hyperlink ref="U19" r:id="rId125"/>
+    <hyperlink ref="V19" r:id="rId126"/>
+    <hyperlink ref="M20" r:id="rId127"/>
+    <hyperlink ref="N20" r:id="rId128" location="rightToLeftDirection"/>
+    <hyperlink ref="P20" r:id="rId129"/>
+    <hyperlink ref="Q20" r:id="rId130"/>
+    <hyperlink ref="R20" r:id="rId131"/>
+    <hyperlink ref="U20" r:id="rId132"/>
+    <hyperlink ref="V20" r:id="rId133"/>
+    <hyperlink ref="M21" r:id="rId134"/>
+    <hyperlink ref="N21" r:id="rId135" location="rightToLeftDirection"/>
+    <hyperlink ref="P21" r:id="rId136"/>
+    <hyperlink ref="Q21" r:id="rId137"/>
+    <hyperlink ref="R21" r:id="rId138"/>
+    <hyperlink ref="U21" r:id="rId139"/>
+    <hyperlink ref="V21" r:id="rId140"/>
+    <hyperlink ref="M22" r:id="rId141"/>
+    <hyperlink ref="N22" r:id="rId142" location="rightToLeftDirection"/>
+    <hyperlink ref="P22" r:id="rId143"/>
+    <hyperlink ref="Q22" r:id="rId144"/>
+    <hyperlink ref="R22" r:id="rId145"/>
+    <hyperlink ref="U22" r:id="rId146"/>
+    <hyperlink ref="V22" r:id="rId147"/>
+    <hyperlink ref="M23" r:id="rId148"/>
+    <hyperlink ref="N23" r:id="rId149" location="rightToLeftDirection"/>
+    <hyperlink ref="P23" r:id="rId150"/>
+    <hyperlink ref="Q23" r:id="rId151"/>
+    <hyperlink ref="R23" r:id="rId152"/>
+    <hyperlink ref="U23" r:id="rId153"/>
+    <hyperlink ref="V23" r:id="rId154"/>
+    <hyperlink ref="M24" r:id="rId155"/>
+    <hyperlink ref="N24" r:id="rId156" location="rightToLeftDirection"/>
+    <hyperlink ref="P24" r:id="rId157"/>
+    <hyperlink ref="Q24" r:id="rId158"/>
+    <hyperlink ref="R24" r:id="rId159"/>
+    <hyperlink ref="U24" r:id="rId160"/>
+    <hyperlink ref="V24" r:id="rId161"/>
+    <hyperlink ref="M25" r:id="rId162"/>
+    <hyperlink ref="N25" r:id="rId163" location="rightToLeftDirection"/>
+    <hyperlink ref="P25" r:id="rId164"/>
+    <hyperlink ref="Q25" r:id="rId165"/>
+    <hyperlink ref="R25" r:id="rId166"/>
+    <hyperlink ref="U25" r:id="rId167"/>
+    <hyperlink ref="V25" r:id="rId168"/>
+    <hyperlink ref="M26" r:id="rId169"/>
+    <hyperlink ref="N26" r:id="rId170" location="rightToLeftDirection"/>
+    <hyperlink ref="P26" r:id="rId171"/>
+    <hyperlink ref="Q26" r:id="rId172"/>
+    <hyperlink ref="R26" r:id="rId173"/>
+    <hyperlink ref="U26" r:id="rId174"/>
+    <hyperlink ref="V26" r:id="rId175"/>
+    <hyperlink ref="M27" r:id="rId176"/>
+    <hyperlink ref="N27" r:id="rId177" location="rightToLeftDirection"/>
+    <hyperlink ref="P27" r:id="rId178"/>
+    <hyperlink ref="Q27" r:id="rId179"/>
+    <hyperlink ref="R27" r:id="rId180"/>
+    <hyperlink ref="U27" r:id="rId181"/>
+    <hyperlink ref="V27" r:id="rId182"/>
+    <hyperlink ref="M28" r:id="rId183"/>
+    <hyperlink ref="N28" r:id="rId184" location="rightToLeftDirection"/>
+    <hyperlink ref="P28" r:id="rId185"/>
+    <hyperlink ref="Q28" r:id="rId186"/>
+    <hyperlink ref="R28" r:id="rId187"/>
+    <hyperlink ref="U28" r:id="rId188"/>
+    <hyperlink ref="V28" r:id="rId189"/>
+    <hyperlink ref="M29" r:id="rId190"/>
+    <hyperlink ref="N29" r:id="rId191" location="rightToLeftDirection"/>
+    <hyperlink ref="P29" r:id="rId192"/>
+    <hyperlink ref="Q29" r:id="rId193"/>
+    <hyperlink ref="R29" r:id="rId194"/>
+    <hyperlink ref="U29" r:id="rId195"/>
+    <hyperlink ref="V29" r:id="rId196"/>
+    <hyperlink ref="M30" r:id="rId197"/>
+    <hyperlink ref="N30" r:id="rId198" location="rightToLeftDirection"/>
+    <hyperlink ref="P30" r:id="rId199"/>
+    <hyperlink ref="Q30" r:id="rId200"/>
+    <hyperlink ref="R30" r:id="rId201"/>
+    <hyperlink ref="U30" r:id="rId202"/>
+    <hyperlink ref="V30" r:id="rId203"/>
+    <hyperlink ref="M31" r:id="rId204"/>
+    <hyperlink ref="N31" r:id="rId205" location="rightToLeftDirection"/>
+    <hyperlink ref="P31" r:id="rId206"/>
+    <hyperlink ref="Q31" r:id="rId207"/>
+    <hyperlink ref="R31" r:id="rId208"/>
+    <hyperlink ref="U31" r:id="rId209"/>
+    <hyperlink ref="V31" r:id="rId210"/>
+    <hyperlink ref="M32" r:id="rId211"/>
+    <hyperlink ref="N32" r:id="rId212" location="rightToLeftDirection"/>
+    <hyperlink ref="P32" r:id="rId213"/>
+    <hyperlink ref="Q32" r:id="rId214"/>
+    <hyperlink ref="R32" r:id="rId215"/>
+    <hyperlink ref="U32" r:id="rId216"/>
+    <hyperlink ref="V32" r:id="rId217"/>
+    <hyperlink ref="M33" r:id="rId218"/>
+    <hyperlink ref="N33" r:id="rId219" location="rightToLeftDirection"/>
+    <hyperlink ref="P33" r:id="rId220"/>
+    <hyperlink ref="Q33" r:id="rId221"/>
+    <hyperlink ref="R33" r:id="rId222"/>
+    <hyperlink ref="U33" r:id="rId223"/>
+    <hyperlink ref="V33" r:id="rId224"/>
+    <hyperlink ref="M34" r:id="rId225"/>
+    <hyperlink ref="N34" r:id="rId226" location="rightToLeftDirection"/>
+    <hyperlink ref="P34" r:id="rId227"/>
+    <hyperlink ref="Q34" r:id="rId228"/>
+    <hyperlink ref="R34" r:id="rId229"/>
+    <hyperlink ref="U34" r:id="rId230"/>
+    <hyperlink ref="V34" r:id="rId231"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/haikai/metadata/data.xlsx
+++ b/docs/collections/haikai/metadata/data.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="457">
   <si>
     <t>書名</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
     <t>随門記</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>書名よみ</t>
   </si>
   <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
     <t>ズイモンキ</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>他の書名</t>
   </si>
   <si>
+    <t>dcterms:alternative</t>
+  </si>
+  <si>
     <t>仙台紀行</t>
   </si>
   <si>
@@ -238,6 +247,9 @@
     <t>責任表示</t>
   </si>
   <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
     <t>瓠界編, 跋</t>
   </si>
   <si>
@@ -328,6 +340,9 @@
     <t>出版</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
     <t>写</t>
   </si>
   <si>
@@ -406,6 +421,9 @@
     <t>注記</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
     <t>識語 :  「・・・原本は小形の巻物にして奥に年号と自著花押あり、●に写すが如し、原本は巻頭に書名著者名を記しあらず、予が書籍の体裁上加へたるなり・・・己酉初冬岩本震五子」</t>
   </si>
   <si>
@@ -433,6 +451,9 @@
     <t>分類</t>
   </si>
   <si>
+    <t>dcterms:subject</t>
+  </si>
+  <si>
     <t>俳諧</t>
   </si>
   <si>
@@ -454,6 +475,9 @@
     <t>原本請求記号</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
     <t>A00:洒竹:1876</t>
   </si>
   <si>
@@ -556,6 +580,9 @@
     <t>マイクロフィルム番号</t>
   </si>
   <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
     <t>2-1-3</t>
   </si>
   <si>
@@ -658,6 +685,9 @@
     <t>形態</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
     <t>1冊;小</t>
   </si>
   <si>
@@ -676,7 +706,10 @@
     <t>3冊;小</t>
   </si>
   <si>
-    <t>通番</t>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
   </si>
   <si>
     <t>1</t>
@@ -778,12 +811,126 @@
     <t>9</t>
   </si>
   <si>
-    <t>年</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>4fa1c816-065a-6f48-4e56-85ff2bf87a22</t>
+  </si>
+  <si>
+    <t>7dc5e926-6df0-6da9-18a0-459cc762a19a</t>
+  </si>
+  <si>
+    <t>aac712be-7f0b-682a-481e-420fc9538e89</t>
+  </si>
+  <si>
+    <t>ef43bbdf-1c29-0e32-7f8b-76c46bb08ac9</t>
+  </si>
+  <si>
+    <t>c7223e6a-6626-4b50-617d-6381cc364bac</t>
+  </si>
+  <si>
+    <t>f79f61a1-67a9-7e2b-1795-1e07fb6f373c</t>
+  </si>
+  <si>
+    <t>be3b5264-4d5f-166e-94b2-20138b496cf6</t>
+  </si>
+  <si>
+    <t>89f8eb95-211d-0f04-a79b-bd2f8bd4465f</t>
+  </si>
+  <si>
+    <t>5fd91e88-48cd-7a10-449e-72ffdfa37b68</t>
+  </si>
+  <si>
+    <t>c381cd73-1131-575f-95be-bd92159c5334</t>
+  </si>
+  <si>
+    <t>d8273b57-732e-160d-17b2-149b20967c70</t>
+  </si>
+  <si>
+    <t>b4093e0d-6e3d-2c59-43f9-07fb7ac3365a</t>
+  </si>
+  <si>
+    <t>2d043411-3742-4133-62f0-3307a8c22ca2</t>
+  </si>
+  <si>
+    <t>559eaffd-1492-1b94-6175-fb2f6da3a5a2</t>
+  </si>
+  <si>
+    <t>6bc3fe2b-2cd7-7a63-5f5d-c8921e481716</t>
+  </si>
+  <si>
+    <t>74921972-a6fb-1735-26a3-300698aa6097</t>
+  </si>
+  <si>
+    <t>34b8cd0d-1edc-a011-6721-dd687954576b</t>
+  </si>
+  <si>
+    <t>5b7803ad-8f74-0ea3-6152-6b789fbf2c4f</t>
+  </si>
+  <si>
+    <t>5aa5004e-495f-367a-8154-181062d29803</t>
+  </si>
+  <si>
+    <t>c633cae1-2aab-2528-630b-8ae1deb27ce5</t>
+  </si>
+  <si>
+    <t>d3466cbc-6ea8-65ae-a156-d0da0e0f4172</t>
+  </si>
+  <si>
+    <t>c7db9875-0774-398d-5be0-a166d2c6a609</t>
+  </si>
+  <si>
+    <t>9e6d3fd2-7951-9c70-a546-dbcdce883757</t>
+  </si>
+  <si>
+    <t>cde06131-a4a3-60e7-9a75-d711a2dd312e</t>
+  </si>
+  <si>
+    <t>da89fb79-8e73-6252-0a92-f7883c5324bd</t>
+  </si>
+  <si>
+    <t>78433183-7857-1c61-65a9-fca501059705</t>
+  </si>
+  <si>
+    <t>16aaa071-3d67-855e-175e-ef30149434bb</t>
+  </si>
+  <si>
+    <t>9902e869-01e1-2df4-964f-a2e66d0a31f6</t>
+  </si>
+  <si>
+    <t>dc2fda64-8660-40e8-3f82-543ff5306baf</t>
+  </si>
+  <si>
+    <t>a9145383-0c17-641e-9593-8a774f1a978c</t>
+  </si>
+  <si>
+    <t>2b227d36-9e56-4e85-6321-889676e15fdd</t>
+  </si>
+  <si>
+    <t>0f5d6c1e-78a1-5fec-8935-8dc8cf2d7146</t>
+  </si>
+  <si>
+    <t>230143a6-7fdf-37a3-91d7-e1fff9d35c0b</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/</t>
   </si>
   <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/4fa1c816-065a-6f48-4e56-85ff2bf87a22</t>
   </si>
   <si>
@@ -883,225 +1030,255 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/230143a6-7fdf-37a3-91d7-e1fff9d35c0b</t>
   </si>
   <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169756/shomon001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169752/naniwa001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169759/toyoto001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169749/kusen001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169750/maku001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169754/senda001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169747/kamak001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169753/nawa001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169743/inuts001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169757/soji001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169745/itakoz001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169764/zudani001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169740/hiyo101.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169735/eda001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169742/imo001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169751/momij001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169738/haika001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169746/jogen001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169736/fuji001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169737/gogen101.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169748/kuma001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169763/zenko001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169744/itako001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169732/amano001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169733/anya001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169758/tokai001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169761/yanag101.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169760/tsuif001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169755/shimo001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169762/zankik001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169739/haruno001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169734/chudo001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169741/hmoku001.jpg</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169756</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169752</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169759</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169749</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169750</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169754</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169747</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169753</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169743</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169757</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169745</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169764</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169740</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169735</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169742</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169751</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169738</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169746</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169736</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169737</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169748</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169763</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169744</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169732</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169733</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169758</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169761</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169760</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169755</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169762</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169739</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169734</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169741</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>4fa1c816-065a-6f48-4e56-85ff2bf87a22</t>
-  </si>
-  <si>
-    <t>7dc5e926-6df0-6da9-18a0-459cc762a19a</t>
-  </si>
-  <si>
-    <t>aac712be-7f0b-682a-481e-420fc9538e89</t>
-  </si>
-  <si>
-    <t>ef43bbdf-1c29-0e32-7f8b-76c46bb08ac9</t>
-  </si>
-  <si>
-    <t>c7223e6a-6626-4b50-617d-6381cc364bac</t>
-  </si>
-  <si>
-    <t>f79f61a1-67a9-7e2b-1795-1e07fb6f373c</t>
-  </si>
-  <si>
-    <t>be3b5264-4d5f-166e-94b2-20138b496cf6</t>
-  </si>
-  <si>
-    <t>89f8eb95-211d-0f04-a79b-bd2f8bd4465f</t>
-  </si>
-  <si>
-    <t>5fd91e88-48cd-7a10-449e-72ffdfa37b68</t>
-  </si>
-  <si>
-    <t>c381cd73-1131-575f-95be-bd92159c5334</t>
-  </si>
-  <si>
-    <t>d8273b57-732e-160d-17b2-149b20967c70</t>
-  </si>
-  <si>
-    <t>b4093e0d-6e3d-2c59-43f9-07fb7ac3365a</t>
-  </si>
-  <si>
-    <t>2d043411-3742-4133-62f0-3307a8c22ca2</t>
-  </si>
-  <si>
-    <t>559eaffd-1492-1b94-6175-fb2f6da3a5a2</t>
-  </si>
-  <si>
-    <t>6bc3fe2b-2cd7-7a63-5f5d-c8921e481716</t>
-  </si>
-  <si>
-    <t>74921972-a6fb-1735-26a3-300698aa6097</t>
-  </si>
-  <si>
-    <t>34b8cd0d-1edc-a011-6721-dd687954576b</t>
-  </si>
-  <si>
-    <t>5b7803ad-8f74-0ea3-6152-6b789fbf2c4f</t>
-  </si>
-  <si>
-    <t>5aa5004e-495f-367a-8154-181062d29803</t>
-  </si>
-  <si>
-    <t>c633cae1-2aab-2528-630b-8ae1deb27ce5</t>
-  </si>
-  <si>
-    <t>d3466cbc-6ea8-65ae-a156-d0da0e0f4172</t>
-  </si>
-  <si>
-    <t>c7db9875-0774-398d-5be0-a166d2c6a609</t>
-  </si>
-  <si>
-    <t>9e6d3fd2-7951-9c70-a546-dbcdce883757</t>
-  </si>
-  <si>
-    <t>cde06131-a4a3-60e7-9a75-d711a2dd312e</t>
-  </si>
-  <si>
-    <t>da89fb79-8e73-6252-0a92-f7883c5324bd</t>
-  </si>
-  <si>
-    <t>78433183-7857-1c61-65a9-fca501059705</t>
-  </si>
-  <si>
-    <t>16aaa071-3d67-855e-175e-ef30149434bb</t>
-  </si>
-  <si>
-    <t>9902e869-01e1-2df4-964f-a2e66d0a31f6</t>
-  </si>
-  <si>
-    <t>dc2fda64-8660-40e8-3f82-543ff5306baf</t>
-  </si>
-  <si>
-    <t>a9145383-0c17-641e-9593-8a774f1a978c</t>
-  </si>
-  <si>
-    <t>2b227d36-9e56-4e85-6321-889676e15fdd</t>
-  </si>
-  <si>
-    <t>0f5d6c1e-78a1-5fec-8935-8dc8cf2d7146</t>
-  </si>
-  <si>
-    <t>230143a6-7fdf-37a3-91d7-e1fff9d35c0b</t>
-  </si>
-  <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169756</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169752</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169759</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169749</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169750</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169754</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169747</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169753</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169743</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169757</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169745</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169764</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169740</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169735</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169742</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169751</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169738</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169746</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169736</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169737</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169748</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169763</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169744</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169732</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169733</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169758</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169761</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169760</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169755</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169762</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169739</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169734</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169741</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/</t>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>江戸期俳諧書</t>
   </si>
   <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169756/manifest</t>
   </si>
   <si>
@@ -1201,121 +1378,13 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169741/manifest</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>江戸期俳諧書</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169756/shomon001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169752/naniwa001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169759/toyoto001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169749/kusen001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169750/maku001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169754/senda001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169747/kamak001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169753/nawa001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169743/inuts001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169757/soji001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169745/itakoz001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169764/zudani001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169740/hiyo101.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169735/eda001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169742/imo001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169751/momij001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169738/haika001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169746/jogen001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169736/fuji001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169737/gogen101.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169748/kuma001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169763/zenko001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169744/itako001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169732/amano001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169733/anya001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169758/tokai001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169761/yanag101.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169760/tsuif001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169755/shimo001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169762/zankik001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169739/haruno001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169734/chudo001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169741/hmoku001.jpg</t>
-  </si>
-  <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t># of media</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1402,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1356,14 +1424,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1656,2182 +1729,2355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="N1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="O1" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="P1" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="Q1" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="R1" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="S1" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="T1" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="U1" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="V1" t="s">
-        <v>432</v>
+        <v>454</v>
+      </c>
+      <c r="W1" t="s">
+        <v>456</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K2" t="s">
-        <v>221</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>290</v>
+        <v>231</v>
+      </c>
+      <c r="L2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N2" t="s">
+        <v>304</v>
       </c>
       <c r="O2" t="s">
-        <v>292</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>362</v>
+        <v>339</v>
+      </c>
+      <c r="P2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R2" t="s">
+        <v>412</v>
+      </c>
+      <c r="S2" t="s">
+        <v>414</v>
       </c>
       <c r="T2" t="s">
-        <v>397</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>433</v>
+        <v>417</v>
+      </c>
+      <c r="U2" t="s">
+        <v>420</v>
+      </c>
+      <c r="V2" t="s">
+        <v>455</v>
+      </c>
+      <c r="W2">
+        <v>1098</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="K3" t="s">
-        <v>222</v>
+        <v>232</v>
+      </c>
+      <c r="L3" t="s">
+        <v>267</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O3" t="s">
-        <v>293</v>
+        <v>305</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>363</v>
+        <v>378</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T3" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
+      </c>
+      <c r="W3">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>233</v>
+      </c>
+      <c r="L4" t="s">
+        <v>268</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O4" t="s">
-        <v>294</v>
+        <v>306</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>364</v>
+        <v>379</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T4" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
+      </c>
+      <c r="W4">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J5" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K5" t="s">
-        <v>224</v>
+        <v>234</v>
+      </c>
+      <c r="L5" t="s">
+        <v>269</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O5" t="s">
-        <v>295</v>
+        <v>307</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>365</v>
+        <v>380</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T5" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
+      </c>
+      <c r="W5">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J6" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K6" t="s">
-        <v>225</v>
+        <v>235</v>
+      </c>
+      <c r="L6" t="s">
+        <v>270</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O6" t="s">
-        <v>296</v>
+        <v>308</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>366</v>
+        <v>381</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T6" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
+      </c>
+      <c r="W6">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K7" t="s">
-        <v>226</v>
+        <v>236</v>
+      </c>
+      <c r="L7" t="s">
+        <v>271</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O7" t="s">
-        <v>297</v>
+        <v>309</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>367</v>
+        <v>382</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
+      </c>
+      <c r="W7">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="J8" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K8" t="s">
-        <v>227</v>
+        <v>237</v>
+      </c>
+      <c r="L8" t="s">
+        <v>272</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O8" t="s">
-        <v>298</v>
+        <v>310</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>368</v>
+        <v>383</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T8" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
+      </c>
+      <c r="W8">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="J9" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K9" t="s">
-        <v>228</v>
+        <v>238</v>
+      </c>
+      <c r="L9" t="s">
+        <v>273</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O9" t="s">
-        <v>299</v>
+        <v>311</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>369</v>
+        <v>384</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T9" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
+      </c>
+      <c r="W9">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>131</v>
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J10" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K10" t="s">
-        <v>229</v>
+        <v>239</v>
+      </c>
+      <c r="L10" t="s">
+        <v>274</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O10" t="s">
-        <v>300</v>
+        <v>312</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>370</v>
+        <v>385</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T10" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
+      </c>
+      <c r="W10">
+        <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J11" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="K11" t="s">
-        <v>230</v>
+        <v>240</v>
+      </c>
+      <c r="L11" t="s">
+        <v>275</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O11" t="s">
-        <v>301</v>
+        <v>313</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>371</v>
+        <v>386</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T11" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
+      </c>
+      <c r="W11">
+        <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I12" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="J12" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="K12" t="s">
-        <v>231</v>
+        <v>241</v>
+      </c>
+      <c r="L12" t="s">
+        <v>276</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O12" t="s">
-        <v>302</v>
+        <v>314</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>372</v>
+        <v>387</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T12" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
+      </c>
+      <c r="W12">
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="J13" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="K13" t="s">
-        <v>232</v>
+        <v>242</v>
+      </c>
+      <c r="L13" t="s">
+        <v>277</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O13" t="s">
-        <v>303</v>
+        <v>315</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>373</v>
+        <v>388</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T13" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
+      </c>
+      <c r="W13">
+        <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I14" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="J14" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K14" t="s">
-        <v>233</v>
+        <v>243</v>
+      </c>
+      <c r="L14" t="s">
+        <v>278</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O14" t="s">
-        <v>304</v>
+        <v>316</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>374</v>
+        <v>389</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T14" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
+      </c>
+      <c r="W14">
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J15" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="K15" t="s">
-        <v>234</v>
+        <v>244</v>
+      </c>
+      <c r="L15" t="s">
+        <v>279</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O15" t="s">
-        <v>305</v>
+        <v>317</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>375</v>
+        <v>390</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T15" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="V15" s="1" t="s">
         <v>433</v>
       </c>
+      <c r="W15">
+        <v>19</v>
+      </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="J16" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K16" t="s">
-        <v>235</v>
+        <v>245</v>
+      </c>
+      <c r="L16" t="s">
+        <v>280</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O16" t="s">
-        <v>306</v>
+        <v>318</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>376</v>
+        <v>391</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T16" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
+      </c>
+      <c r="W16">
+        <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J17" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K17" t="s">
-        <v>236</v>
+        <v>246</v>
+      </c>
+      <c r="L17" t="s">
+        <v>281</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O17" t="s">
-        <v>307</v>
+        <v>319</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>377</v>
+        <v>392</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T17" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
+      </c>
+      <c r="W17">
+        <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I18" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="K18" t="s">
-        <v>237</v>
+        <v>247</v>
+      </c>
+      <c r="L18" t="s">
+        <v>282</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O18" t="s">
-        <v>308</v>
+        <v>320</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>378</v>
+        <v>393</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T18" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
+      </c>
+      <c r="W18">
+        <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="K19" t="s">
-        <v>238</v>
+        <v>248</v>
+      </c>
+      <c r="L19" t="s">
+        <v>283</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O19" t="s">
-        <v>309</v>
+        <v>321</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>379</v>
+        <v>394</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T19" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
+      </c>
+      <c r="W19">
+        <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H20" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>239</v>
+        <v>249</v>
+      </c>
+      <c r="L20" t="s">
+        <v>284</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O20" t="s">
-        <v>310</v>
+        <v>322</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>380</v>
+        <v>395</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T20" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
+      </c>
+      <c r="W20">
+        <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>240</v>
+        <v>250</v>
+      </c>
+      <c r="L21" t="s">
+        <v>285</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O21" t="s">
-        <v>311</v>
+        <v>323</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>381</v>
+        <v>396</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T21" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
+      </c>
+      <c r="W21">
+        <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>241</v>
+        <v>251</v>
+      </c>
+      <c r="L22" t="s">
+        <v>286</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O22" t="s">
-        <v>312</v>
+        <v>324</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>382</v>
+        <v>397</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T22" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
+      </c>
+      <c r="W22">
+        <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>242</v>
+        <v>252</v>
+      </c>
+      <c r="L23" t="s">
+        <v>287</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O23" t="s">
-        <v>313</v>
+        <v>325</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>383</v>
+        <v>398</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T23" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
+      </c>
+      <c r="W23">
+        <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H24" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>253</v>
+      </c>
+      <c r="L24" t="s">
+        <v>288</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O24" t="s">
-        <v>314</v>
+        <v>326</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>384</v>
+        <v>399</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T24" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
+      </c>
+      <c r="W24">
+        <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>254</v>
+      </c>
+      <c r="L25" t="s">
+        <v>289</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O25" t="s">
-        <v>315</v>
+        <v>327</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>385</v>
+        <v>400</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T25" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>433</v>
+        <v>443</v>
+      </c>
+      <c r="W25">
+        <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>290</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O26" t="s">
-        <v>316</v>
+        <v>328</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>386</v>
+        <v>401</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T26" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
+      </c>
+      <c r="W26">
+        <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>291</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O27" t="s">
-        <v>317</v>
+        <v>329</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>387</v>
+        <v>402</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T27" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
+      </c>
+      <c r="W27">
+        <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>257</v>
+      </c>
+      <c r="L28" t="s">
+        <v>292</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O28" t="s">
-        <v>318</v>
+        <v>330</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>388</v>
+        <v>403</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T28" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>433</v>
+        <v>446</v>
+      </c>
+      <c r="W28">
+        <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>293</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O29" t="s">
-        <v>319</v>
+        <v>331</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>389</v>
+        <v>404</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T29" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>433</v>
+        <v>447</v>
+      </c>
+      <c r="W29">
+        <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H30" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K30" t="s">
-        <v>249</v>
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>294</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O30" t="s">
-        <v>320</v>
+        <v>332</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>390</v>
+        <v>405</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T30" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>433</v>
+        <v>448</v>
+      </c>
+      <c r="W30">
+        <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="J31" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>295</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O31" t="s">
-        <v>321</v>
+        <v>333</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>391</v>
+        <v>406</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T31" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>433</v>
+        <v>449</v>
+      </c>
+      <c r="W31">
+        <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="J32" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K32" t="s">
-        <v>251</v>
+        <v>261</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O32" t="s">
-        <v>322</v>
+        <v>334</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>392</v>
+        <v>407</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T32" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>433</v>
+        <v>450</v>
+      </c>
+      <c r="W32">
+        <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H33" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="J33" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s">
-        <v>252</v>
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>297</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O33" t="s">
-        <v>323</v>
+        <v>335</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>393</v>
+        <v>408</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T33" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>433</v>
+        <v>451</v>
+      </c>
+      <c r="W33">
+        <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H34" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J34" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s">
-        <v>253</v>
+        <v>263</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O34" t="s">
-        <v>324</v>
+        <v>336</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>394</v>
+        <v>409</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="T34" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>433</v>
+        <v>452</v>
+      </c>
+      <c r="W34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" t="s">
+        <v>264</v>
+      </c>
+      <c r="L35" t="s">
+        <v>299</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="T35" t="s">
+        <v>418</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="W35">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2" location="rightToLeftDirection"/>
-    <hyperlink ref="P2" r:id="rId3"/>
-    <hyperlink ref="Q2" r:id="rId4"/>
-    <hyperlink ref="R2" r:id="rId5"/>
-    <hyperlink ref="U2" r:id="rId6"/>
-    <hyperlink ref="V2" r:id="rId7"/>
-    <hyperlink ref="M3" r:id="rId8"/>
-    <hyperlink ref="N3" r:id="rId9" location="rightToLeftDirection"/>
-    <hyperlink ref="P3" r:id="rId10"/>
-    <hyperlink ref="Q3" r:id="rId11"/>
-    <hyperlink ref="R3" r:id="rId12"/>
-    <hyperlink ref="U3" r:id="rId13"/>
-    <hyperlink ref="V3" r:id="rId14"/>
-    <hyperlink ref="M4" r:id="rId15"/>
-    <hyperlink ref="N4" r:id="rId16" location="rightToLeftDirection"/>
-    <hyperlink ref="P4" r:id="rId17"/>
-    <hyperlink ref="Q4" r:id="rId18"/>
-    <hyperlink ref="R4" r:id="rId19"/>
-    <hyperlink ref="U4" r:id="rId20"/>
-    <hyperlink ref="V4" r:id="rId21"/>
-    <hyperlink ref="M5" r:id="rId22"/>
-    <hyperlink ref="N5" r:id="rId23" location="rightToLeftDirection"/>
-    <hyperlink ref="P5" r:id="rId24"/>
-    <hyperlink ref="Q5" r:id="rId25"/>
-    <hyperlink ref="R5" r:id="rId26"/>
-    <hyperlink ref="U5" r:id="rId27"/>
-    <hyperlink ref="V5" r:id="rId28"/>
-    <hyperlink ref="M6" r:id="rId29"/>
-    <hyperlink ref="N6" r:id="rId30" location="rightToLeftDirection"/>
-    <hyperlink ref="P6" r:id="rId31"/>
-    <hyperlink ref="Q6" r:id="rId32"/>
-    <hyperlink ref="R6" r:id="rId33"/>
-    <hyperlink ref="U6" r:id="rId34"/>
-    <hyperlink ref="V6" r:id="rId35"/>
-    <hyperlink ref="M7" r:id="rId36"/>
-    <hyperlink ref="N7" r:id="rId37" location="rightToLeftDirection"/>
-    <hyperlink ref="P7" r:id="rId38"/>
-    <hyperlink ref="Q7" r:id="rId39"/>
-    <hyperlink ref="R7" r:id="rId40"/>
-    <hyperlink ref="U7" r:id="rId41"/>
-    <hyperlink ref="V7" r:id="rId42"/>
-    <hyperlink ref="M8" r:id="rId43"/>
-    <hyperlink ref="N8" r:id="rId44" location="rightToLeftDirection"/>
-    <hyperlink ref="P8" r:id="rId45"/>
-    <hyperlink ref="Q8" r:id="rId46"/>
-    <hyperlink ref="R8" r:id="rId47"/>
-    <hyperlink ref="U8" r:id="rId48"/>
-    <hyperlink ref="V8" r:id="rId49"/>
-    <hyperlink ref="M9" r:id="rId50"/>
-    <hyperlink ref="N9" r:id="rId51" location="rightToLeftDirection"/>
-    <hyperlink ref="P9" r:id="rId52"/>
-    <hyperlink ref="Q9" r:id="rId53"/>
-    <hyperlink ref="R9" r:id="rId54"/>
-    <hyperlink ref="U9" r:id="rId55"/>
-    <hyperlink ref="V9" r:id="rId56"/>
-    <hyperlink ref="M10" r:id="rId57"/>
-    <hyperlink ref="N10" r:id="rId58" location="rightToLeftDirection"/>
-    <hyperlink ref="P10" r:id="rId59"/>
-    <hyperlink ref="Q10" r:id="rId60"/>
-    <hyperlink ref="R10" r:id="rId61"/>
-    <hyperlink ref="U10" r:id="rId62"/>
-    <hyperlink ref="V10" r:id="rId63"/>
-    <hyperlink ref="M11" r:id="rId64"/>
-    <hyperlink ref="N11" r:id="rId65" location="rightToLeftDirection"/>
-    <hyperlink ref="P11" r:id="rId66"/>
-    <hyperlink ref="Q11" r:id="rId67"/>
-    <hyperlink ref="R11" r:id="rId68"/>
-    <hyperlink ref="U11" r:id="rId69"/>
-    <hyperlink ref="V11" r:id="rId70"/>
-    <hyperlink ref="M12" r:id="rId71"/>
-    <hyperlink ref="N12" r:id="rId72" location="rightToLeftDirection"/>
-    <hyperlink ref="P12" r:id="rId73"/>
-    <hyperlink ref="Q12" r:id="rId74"/>
-    <hyperlink ref="R12" r:id="rId75"/>
-    <hyperlink ref="U12" r:id="rId76"/>
-    <hyperlink ref="V12" r:id="rId77"/>
-    <hyperlink ref="M13" r:id="rId78"/>
-    <hyperlink ref="N13" r:id="rId79" location="rightToLeftDirection"/>
-    <hyperlink ref="P13" r:id="rId80"/>
-    <hyperlink ref="Q13" r:id="rId81"/>
-    <hyperlink ref="R13" r:id="rId82"/>
-    <hyperlink ref="U13" r:id="rId83"/>
-    <hyperlink ref="V13" r:id="rId84"/>
-    <hyperlink ref="M14" r:id="rId85"/>
-    <hyperlink ref="N14" r:id="rId86" location="rightToLeftDirection"/>
-    <hyperlink ref="P14" r:id="rId87"/>
-    <hyperlink ref="Q14" r:id="rId88"/>
-    <hyperlink ref="R14" r:id="rId89"/>
-    <hyperlink ref="U14" r:id="rId90"/>
-    <hyperlink ref="V14" r:id="rId91"/>
-    <hyperlink ref="M15" r:id="rId92"/>
-    <hyperlink ref="N15" r:id="rId93" location="rightToLeftDirection"/>
-    <hyperlink ref="P15" r:id="rId94"/>
-    <hyperlink ref="Q15" r:id="rId95"/>
-    <hyperlink ref="R15" r:id="rId96"/>
-    <hyperlink ref="U15" r:id="rId97"/>
-    <hyperlink ref="V15" r:id="rId98"/>
-    <hyperlink ref="M16" r:id="rId99"/>
-    <hyperlink ref="N16" r:id="rId100" location="rightToLeftDirection"/>
-    <hyperlink ref="P16" r:id="rId101"/>
-    <hyperlink ref="Q16" r:id="rId102"/>
-    <hyperlink ref="R16" r:id="rId103"/>
-    <hyperlink ref="U16" r:id="rId104"/>
-    <hyperlink ref="V16" r:id="rId105"/>
-    <hyperlink ref="M17" r:id="rId106"/>
-    <hyperlink ref="N17" r:id="rId107" location="rightToLeftDirection"/>
-    <hyperlink ref="P17" r:id="rId108"/>
-    <hyperlink ref="Q17" r:id="rId109"/>
-    <hyperlink ref="R17" r:id="rId110"/>
-    <hyperlink ref="U17" r:id="rId111"/>
-    <hyperlink ref="V17" r:id="rId112"/>
-    <hyperlink ref="M18" r:id="rId113"/>
-    <hyperlink ref="N18" r:id="rId114" location="rightToLeftDirection"/>
-    <hyperlink ref="P18" r:id="rId115"/>
-    <hyperlink ref="Q18" r:id="rId116"/>
-    <hyperlink ref="R18" r:id="rId117"/>
-    <hyperlink ref="U18" r:id="rId118"/>
-    <hyperlink ref="V18" r:id="rId119"/>
-    <hyperlink ref="M19" r:id="rId120"/>
-    <hyperlink ref="N19" r:id="rId121" location="rightToLeftDirection"/>
-    <hyperlink ref="P19" r:id="rId122"/>
-    <hyperlink ref="Q19" r:id="rId123"/>
-    <hyperlink ref="R19" r:id="rId124"/>
-    <hyperlink ref="U19" r:id="rId125"/>
-    <hyperlink ref="V19" r:id="rId126"/>
-    <hyperlink ref="M20" r:id="rId127"/>
-    <hyperlink ref="N20" r:id="rId128" location="rightToLeftDirection"/>
-    <hyperlink ref="P20" r:id="rId129"/>
-    <hyperlink ref="Q20" r:id="rId130"/>
-    <hyperlink ref="R20" r:id="rId131"/>
-    <hyperlink ref="U20" r:id="rId132"/>
-    <hyperlink ref="V20" r:id="rId133"/>
-    <hyperlink ref="M21" r:id="rId134"/>
-    <hyperlink ref="N21" r:id="rId135" location="rightToLeftDirection"/>
-    <hyperlink ref="P21" r:id="rId136"/>
-    <hyperlink ref="Q21" r:id="rId137"/>
-    <hyperlink ref="R21" r:id="rId138"/>
-    <hyperlink ref="U21" r:id="rId139"/>
-    <hyperlink ref="V21" r:id="rId140"/>
-    <hyperlink ref="M22" r:id="rId141"/>
-    <hyperlink ref="N22" r:id="rId142" location="rightToLeftDirection"/>
-    <hyperlink ref="P22" r:id="rId143"/>
-    <hyperlink ref="Q22" r:id="rId144"/>
-    <hyperlink ref="R22" r:id="rId145"/>
-    <hyperlink ref="U22" r:id="rId146"/>
-    <hyperlink ref="V22" r:id="rId147"/>
-    <hyperlink ref="M23" r:id="rId148"/>
-    <hyperlink ref="N23" r:id="rId149" location="rightToLeftDirection"/>
-    <hyperlink ref="P23" r:id="rId150"/>
-    <hyperlink ref="Q23" r:id="rId151"/>
-    <hyperlink ref="R23" r:id="rId152"/>
-    <hyperlink ref="U23" r:id="rId153"/>
-    <hyperlink ref="V23" r:id="rId154"/>
-    <hyperlink ref="M24" r:id="rId155"/>
-    <hyperlink ref="N24" r:id="rId156" location="rightToLeftDirection"/>
-    <hyperlink ref="P24" r:id="rId157"/>
-    <hyperlink ref="Q24" r:id="rId158"/>
-    <hyperlink ref="R24" r:id="rId159"/>
-    <hyperlink ref="U24" r:id="rId160"/>
-    <hyperlink ref="V24" r:id="rId161"/>
-    <hyperlink ref="M25" r:id="rId162"/>
-    <hyperlink ref="N25" r:id="rId163" location="rightToLeftDirection"/>
-    <hyperlink ref="P25" r:id="rId164"/>
-    <hyperlink ref="Q25" r:id="rId165"/>
-    <hyperlink ref="R25" r:id="rId166"/>
-    <hyperlink ref="U25" r:id="rId167"/>
-    <hyperlink ref="V25" r:id="rId168"/>
-    <hyperlink ref="M26" r:id="rId169"/>
-    <hyperlink ref="N26" r:id="rId170" location="rightToLeftDirection"/>
-    <hyperlink ref="P26" r:id="rId171"/>
-    <hyperlink ref="Q26" r:id="rId172"/>
-    <hyperlink ref="R26" r:id="rId173"/>
-    <hyperlink ref="U26" r:id="rId174"/>
-    <hyperlink ref="V26" r:id="rId175"/>
-    <hyperlink ref="M27" r:id="rId176"/>
-    <hyperlink ref="N27" r:id="rId177" location="rightToLeftDirection"/>
-    <hyperlink ref="P27" r:id="rId178"/>
-    <hyperlink ref="Q27" r:id="rId179"/>
-    <hyperlink ref="R27" r:id="rId180"/>
-    <hyperlink ref="U27" r:id="rId181"/>
-    <hyperlink ref="V27" r:id="rId182"/>
-    <hyperlink ref="M28" r:id="rId183"/>
-    <hyperlink ref="N28" r:id="rId184" location="rightToLeftDirection"/>
-    <hyperlink ref="P28" r:id="rId185"/>
-    <hyperlink ref="Q28" r:id="rId186"/>
-    <hyperlink ref="R28" r:id="rId187"/>
-    <hyperlink ref="U28" r:id="rId188"/>
-    <hyperlink ref="V28" r:id="rId189"/>
-    <hyperlink ref="M29" r:id="rId190"/>
-    <hyperlink ref="N29" r:id="rId191" location="rightToLeftDirection"/>
-    <hyperlink ref="P29" r:id="rId192"/>
-    <hyperlink ref="Q29" r:id="rId193"/>
-    <hyperlink ref="R29" r:id="rId194"/>
-    <hyperlink ref="U29" r:id="rId195"/>
-    <hyperlink ref="V29" r:id="rId196"/>
-    <hyperlink ref="M30" r:id="rId197"/>
-    <hyperlink ref="N30" r:id="rId198" location="rightToLeftDirection"/>
-    <hyperlink ref="P30" r:id="rId199"/>
-    <hyperlink ref="Q30" r:id="rId200"/>
-    <hyperlink ref="R30" r:id="rId201"/>
-    <hyperlink ref="U30" r:id="rId202"/>
-    <hyperlink ref="V30" r:id="rId203"/>
-    <hyperlink ref="M31" r:id="rId204"/>
-    <hyperlink ref="N31" r:id="rId205" location="rightToLeftDirection"/>
-    <hyperlink ref="P31" r:id="rId206"/>
-    <hyperlink ref="Q31" r:id="rId207"/>
-    <hyperlink ref="R31" r:id="rId208"/>
-    <hyperlink ref="U31" r:id="rId209"/>
-    <hyperlink ref="V31" r:id="rId210"/>
-    <hyperlink ref="M32" r:id="rId211"/>
-    <hyperlink ref="N32" r:id="rId212" location="rightToLeftDirection"/>
-    <hyperlink ref="P32" r:id="rId213"/>
-    <hyperlink ref="Q32" r:id="rId214"/>
-    <hyperlink ref="R32" r:id="rId215"/>
-    <hyperlink ref="U32" r:id="rId216"/>
-    <hyperlink ref="V32" r:id="rId217"/>
-    <hyperlink ref="M33" r:id="rId218"/>
-    <hyperlink ref="N33" r:id="rId219" location="rightToLeftDirection"/>
-    <hyperlink ref="P33" r:id="rId220"/>
-    <hyperlink ref="Q33" r:id="rId221"/>
-    <hyperlink ref="R33" r:id="rId222"/>
-    <hyperlink ref="U33" r:id="rId223"/>
-    <hyperlink ref="V33" r:id="rId224"/>
-    <hyperlink ref="M34" r:id="rId225"/>
-    <hyperlink ref="N34" r:id="rId226" location="rightToLeftDirection"/>
-    <hyperlink ref="P34" r:id="rId227"/>
-    <hyperlink ref="Q34" r:id="rId228"/>
-    <hyperlink ref="R34" r:id="rId229"/>
-    <hyperlink ref="U34" r:id="rId230"/>
-    <hyperlink ref="V34" r:id="rId231"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="P3" r:id="rId4"/>
+    <hyperlink ref="Q3" r:id="rId5"/>
+    <hyperlink ref="S3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="U3" r:id="rId7"/>
+    <hyperlink ref="M4" r:id="rId8"/>
+    <hyperlink ref="N4" r:id="rId9"/>
+    <hyperlink ref="O4" r:id="rId10"/>
+    <hyperlink ref="P4" r:id="rId11"/>
+    <hyperlink ref="Q4" r:id="rId12"/>
+    <hyperlink ref="S4" r:id="rId13" location="rightToLeftDirection"/>
+    <hyperlink ref="U4" r:id="rId14"/>
+    <hyperlink ref="M5" r:id="rId15"/>
+    <hyperlink ref="N5" r:id="rId16"/>
+    <hyperlink ref="O5" r:id="rId17"/>
+    <hyperlink ref="P5" r:id="rId18"/>
+    <hyperlink ref="Q5" r:id="rId19"/>
+    <hyperlink ref="S5" r:id="rId20" location="rightToLeftDirection"/>
+    <hyperlink ref="U5" r:id="rId21"/>
+    <hyperlink ref="M6" r:id="rId22"/>
+    <hyperlink ref="N6" r:id="rId23"/>
+    <hyperlink ref="O6" r:id="rId24"/>
+    <hyperlink ref="P6" r:id="rId25"/>
+    <hyperlink ref="Q6" r:id="rId26"/>
+    <hyperlink ref="S6" r:id="rId27" location="rightToLeftDirection"/>
+    <hyperlink ref="U6" r:id="rId28"/>
+    <hyperlink ref="M7" r:id="rId29"/>
+    <hyperlink ref="N7" r:id="rId30"/>
+    <hyperlink ref="O7" r:id="rId31"/>
+    <hyperlink ref="P7" r:id="rId32"/>
+    <hyperlink ref="Q7" r:id="rId33"/>
+    <hyperlink ref="S7" r:id="rId34" location="rightToLeftDirection"/>
+    <hyperlink ref="U7" r:id="rId35"/>
+    <hyperlink ref="M8" r:id="rId36"/>
+    <hyperlink ref="N8" r:id="rId37"/>
+    <hyperlink ref="O8" r:id="rId38"/>
+    <hyperlink ref="P8" r:id="rId39"/>
+    <hyperlink ref="Q8" r:id="rId40"/>
+    <hyperlink ref="S8" r:id="rId41" location="rightToLeftDirection"/>
+    <hyperlink ref="U8" r:id="rId42"/>
+    <hyperlink ref="M9" r:id="rId43"/>
+    <hyperlink ref="N9" r:id="rId44"/>
+    <hyperlink ref="O9" r:id="rId45"/>
+    <hyperlink ref="P9" r:id="rId46"/>
+    <hyperlink ref="Q9" r:id="rId47"/>
+    <hyperlink ref="S9" r:id="rId48" location="rightToLeftDirection"/>
+    <hyperlink ref="U9" r:id="rId49"/>
+    <hyperlink ref="M10" r:id="rId50"/>
+    <hyperlink ref="N10" r:id="rId51"/>
+    <hyperlink ref="O10" r:id="rId52"/>
+    <hyperlink ref="P10" r:id="rId53"/>
+    <hyperlink ref="Q10" r:id="rId54"/>
+    <hyperlink ref="S10" r:id="rId55" location="rightToLeftDirection"/>
+    <hyperlink ref="U10" r:id="rId56"/>
+    <hyperlink ref="M11" r:id="rId57"/>
+    <hyperlink ref="N11" r:id="rId58"/>
+    <hyperlink ref="O11" r:id="rId59"/>
+    <hyperlink ref="P11" r:id="rId60"/>
+    <hyperlink ref="Q11" r:id="rId61"/>
+    <hyperlink ref="S11" r:id="rId62" location="rightToLeftDirection"/>
+    <hyperlink ref="U11" r:id="rId63"/>
+    <hyperlink ref="M12" r:id="rId64"/>
+    <hyperlink ref="N12" r:id="rId65"/>
+    <hyperlink ref="O12" r:id="rId66"/>
+    <hyperlink ref="P12" r:id="rId67"/>
+    <hyperlink ref="Q12" r:id="rId68"/>
+    <hyperlink ref="S12" r:id="rId69" location="rightToLeftDirection"/>
+    <hyperlink ref="U12" r:id="rId70"/>
+    <hyperlink ref="M13" r:id="rId71"/>
+    <hyperlink ref="N13" r:id="rId72"/>
+    <hyperlink ref="O13" r:id="rId73"/>
+    <hyperlink ref="P13" r:id="rId74"/>
+    <hyperlink ref="Q13" r:id="rId75"/>
+    <hyperlink ref="S13" r:id="rId76" location="rightToLeftDirection"/>
+    <hyperlink ref="U13" r:id="rId77"/>
+    <hyperlink ref="M14" r:id="rId78"/>
+    <hyperlink ref="N14" r:id="rId79"/>
+    <hyperlink ref="O14" r:id="rId80"/>
+    <hyperlink ref="P14" r:id="rId81"/>
+    <hyperlink ref="Q14" r:id="rId82"/>
+    <hyperlink ref="S14" r:id="rId83" location="rightToLeftDirection"/>
+    <hyperlink ref="U14" r:id="rId84"/>
+    <hyperlink ref="M15" r:id="rId85"/>
+    <hyperlink ref="N15" r:id="rId86"/>
+    <hyperlink ref="O15" r:id="rId87"/>
+    <hyperlink ref="P15" r:id="rId88"/>
+    <hyperlink ref="Q15" r:id="rId89"/>
+    <hyperlink ref="S15" r:id="rId90" location="rightToLeftDirection"/>
+    <hyperlink ref="U15" r:id="rId91"/>
+    <hyperlink ref="M16" r:id="rId92"/>
+    <hyperlink ref="N16" r:id="rId93"/>
+    <hyperlink ref="O16" r:id="rId94"/>
+    <hyperlink ref="P16" r:id="rId95"/>
+    <hyperlink ref="Q16" r:id="rId96"/>
+    <hyperlink ref="S16" r:id="rId97" location="rightToLeftDirection"/>
+    <hyperlink ref="U16" r:id="rId98"/>
+    <hyperlink ref="M17" r:id="rId99"/>
+    <hyperlink ref="N17" r:id="rId100"/>
+    <hyperlink ref="O17" r:id="rId101"/>
+    <hyperlink ref="P17" r:id="rId102"/>
+    <hyperlink ref="Q17" r:id="rId103"/>
+    <hyperlink ref="S17" r:id="rId104" location="rightToLeftDirection"/>
+    <hyperlink ref="U17" r:id="rId105"/>
+    <hyperlink ref="M18" r:id="rId106"/>
+    <hyperlink ref="N18" r:id="rId107"/>
+    <hyperlink ref="O18" r:id="rId108"/>
+    <hyperlink ref="P18" r:id="rId109"/>
+    <hyperlink ref="Q18" r:id="rId110"/>
+    <hyperlink ref="S18" r:id="rId111" location="rightToLeftDirection"/>
+    <hyperlink ref="U18" r:id="rId112"/>
+    <hyperlink ref="M19" r:id="rId113"/>
+    <hyperlink ref="N19" r:id="rId114"/>
+    <hyperlink ref="O19" r:id="rId115"/>
+    <hyperlink ref="P19" r:id="rId116"/>
+    <hyperlink ref="Q19" r:id="rId117"/>
+    <hyperlink ref="S19" r:id="rId118" location="rightToLeftDirection"/>
+    <hyperlink ref="U19" r:id="rId119"/>
+    <hyperlink ref="M20" r:id="rId120"/>
+    <hyperlink ref="N20" r:id="rId121"/>
+    <hyperlink ref="O20" r:id="rId122"/>
+    <hyperlink ref="P20" r:id="rId123"/>
+    <hyperlink ref="Q20" r:id="rId124"/>
+    <hyperlink ref="S20" r:id="rId125" location="rightToLeftDirection"/>
+    <hyperlink ref="U20" r:id="rId126"/>
+    <hyperlink ref="M21" r:id="rId127"/>
+    <hyperlink ref="N21" r:id="rId128"/>
+    <hyperlink ref="O21" r:id="rId129"/>
+    <hyperlink ref="P21" r:id="rId130"/>
+    <hyperlink ref="Q21" r:id="rId131"/>
+    <hyperlink ref="S21" r:id="rId132" location="rightToLeftDirection"/>
+    <hyperlink ref="U21" r:id="rId133"/>
+    <hyperlink ref="M22" r:id="rId134"/>
+    <hyperlink ref="N22" r:id="rId135"/>
+    <hyperlink ref="O22" r:id="rId136"/>
+    <hyperlink ref="P22" r:id="rId137"/>
+    <hyperlink ref="Q22" r:id="rId138"/>
+    <hyperlink ref="S22" r:id="rId139" location="rightToLeftDirection"/>
+    <hyperlink ref="U22" r:id="rId140"/>
+    <hyperlink ref="M23" r:id="rId141"/>
+    <hyperlink ref="N23" r:id="rId142"/>
+    <hyperlink ref="O23" r:id="rId143"/>
+    <hyperlink ref="P23" r:id="rId144"/>
+    <hyperlink ref="Q23" r:id="rId145"/>
+    <hyperlink ref="S23" r:id="rId146" location="rightToLeftDirection"/>
+    <hyperlink ref="U23" r:id="rId147"/>
+    <hyperlink ref="M24" r:id="rId148"/>
+    <hyperlink ref="N24" r:id="rId149"/>
+    <hyperlink ref="O24" r:id="rId150"/>
+    <hyperlink ref="P24" r:id="rId151"/>
+    <hyperlink ref="Q24" r:id="rId152"/>
+    <hyperlink ref="S24" r:id="rId153" location="rightToLeftDirection"/>
+    <hyperlink ref="U24" r:id="rId154"/>
+    <hyperlink ref="M25" r:id="rId155"/>
+    <hyperlink ref="N25" r:id="rId156"/>
+    <hyperlink ref="O25" r:id="rId157"/>
+    <hyperlink ref="P25" r:id="rId158"/>
+    <hyperlink ref="Q25" r:id="rId159"/>
+    <hyperlink ref="S25" r:id="rId160" location="rightToLeftDirection"/>
+    <hyperlink ref="U25" r:id="rId161"/>
+    <hyperlink ref="M26" r:id="rId162"/>
+    <hyperlink ref="N26" r:id="rId163"/>
+    <hyperlink ref="O26" r:id="rId164"/>
+    <hyperlink ref="P26" r:id="rId165"/>
+    <hyperlink ref="Q26" r:id="rId166"/>
+    <hyperlink ref="S26" r:id="rId167" location="rightToLeftDirection"/>
+    <hyperlink ref="U26" r:id="rId168"/>
+    <hyperlink ref="M27" r:id="rId169"/>
+    <hyperlink ref="N27" r:id="rId170"/>
+    <hyperlink ref="O27" r:id="rId171"/>
+    <hyperlink ref="P27" r:id="rId172"/>
+    <hyperlink ref="Q27" r:id="rId173"/>
+    <hyperlink ref="S27" r:id="rId174" location="rightToLeftDirection"/>
+    <hyperlink ref="U27" r:id="rId175"/>
+    <hyperlink ref="M28" r:id="rId176"/>
+    <hyperlink ref="N28" r:id="rId177"/>
+    <hyperlink ref="O28" r:id="rId178"/>
+    <hyperlink ref="P28" r:id="rId179"/>
+    <hyperlink ref="Q28" r:id="rId180"/>
+    <hyperlink ref="S28" r:id="rId181" location="rightToLeftDirection"/>
+    <hyperlink ref="U28" r:id="rId182"/>
+    <hyperlink ref="M29" r:id="rId183"/>
+    <hyperlink ref="N29" r:id="rId184"/>
+    <hyperlink ref="O29" r:id="rId185"/>
+    <hyperlink ref="P29" r:id="rId186"/>
+    <hyperlink ref="Q29" r:id="rId187"/>
+    <hyperlink ref="S29" r:id="rId188" location="rightToLeftDirection"/>
+    <hyperlink ref="U29" r:id="rId189"/>
+    <hyperlink ref="M30" r:id="rId190"/>
+    <hyperlink ref="N30" r:id="rId191"/>
+    <hyperlink ref="O30" r:id="rId192"/>
+    <hyperlink ref="P30" r:id="rId193"/>
+    <hyperlink ref="Q30" r:id="rId194"/>
+    <hyperlink ref="S30" r:id="rId195" location="rightToLeftDirection"/>
+    <hyperlink ref="U30" r:id="rId196"/>
+    <hyperlink ref="M31" r:id="rId197"/>
+    <hyperlink ref="N31" r:id="rId198"/>
+    <hyperlink ref="O31" r:id="rId199"/>
+    <hyperlink ref="P31" r:id="rId200"/>
+    <hyperlink ref="Q31" r:id="rId201"/>
+    <hyperlink ref="S31" r:id="rId202" location="rightToLeftDirection"/>
+    <hyperlink ref="U31" r:id="rId203"/>
+    <hyperlink ref="M32" r:id="rId204"/>
+    <hyperlink ref="N32" r:id="rId205"/>
+    <hyperlink ref="O32" r:id="rId206"/>
+    <hyperlink ref="P32" r:id="rId207"/>
+    <hyperlink ref="Q32" r:id="rId208"/>
+    <hyperlink ref="S32" r:id="rId209" location="rightToLeftDirection"/>
+    <hyperlink ref="U32" r:id="rId210"/>
+    <hyperlink ref="M33" r:id="rId211"/>
+    <hyperlink ref="N33" r:id="rId212"/>
+    <hyperlink ref="O33" r:id="rId213"/>
+    <hyperlink ref="P33" r:id="rId214"/>
+    <hyperlink ref="Q33" r:id="rId215"/>
+    <hyperlink ref="S33" r:id="rId216" location="rightToLeftDirection"/>
+    <hyperlink ref="U33" r:id="rId217"/>
+    <hyperlink ref="M34" r:id="rId218"/>
+    <hyperlink ref="N34" r:id="rId219"/>
+    <hyperlink ref="O34" r:id="rId220"/>
+    <hyperlink ref="P34" r:id="rId221"/>
+    <hyperlink ref="Q34" r:id="rId222"/>
+    <hyperlink ref="S34" r:id="rId223" location="rightToLeftDirection"/>
+    <hyperlink ref="U34" r:id="rId224"/>
+    <hyperlink ref="M35" r:id="rId225"/>
+    <hyperlink ref="N35" r:id="rId226"/>
+    <hyperlink ref="O35" r:id="rId227"/>
+    <hyperlink ref="P35" r:id="rId228"/>
+    <hyperlink ref="Q35" r:id="rId229"/>
+    <hyperlink ref="S35" r:id="rId230" location="rightToLeftDirection"/>
+    <hyperlink ref="U35" r:id="rId231"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/haikai/metadata/data.xlsx
+++ b/docs/collections/haikai/metadata/data.xlsx
@@ -215,7 +215,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/haikai/document/4fa1c816-065a-6f48-4e56-85ff2bf87a22</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/169756/shomon001.jpg</t>

--- a/docs/collections/haikai/metadata/data.xlsx
+++ b/docs/collections/haikai/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
   <si>
     <t>書名</t>
   </si>
@@ -50,6 +50,9 @@
     <t>通番</t>
   </si>
   <si>
+    <t>iiif viewer</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4fa1c816-065a-6f48-4e56-85ff2bf87a22.json</t>
+  </si>
+  <si>
     <t>4fa1c816-065a-6f48-4e56-85ff2bf87a22</t>
   </si>
   <si>
@@ -257,6 +263,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7dc5e926-6df0-6da9-18a0-459cc762a19a.json</t>
+  </si>
+  <si>
     <t>7dc5e926-6df0-6da9-18a0-459cc762a19a</t>
   </si>
   <si>
@@ -293,6 +302,9 @@
     <t>11</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/aac712be-7f0b-682a-481e-420fc9538e89.json</t>
+  </si>
+  <si>
     <t>aac712be-7f0b-682a-481e-420fc9538e89</t>
   </si>
   <si>
@@ -329,6 +341,9 @@
     <t>12</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ef43bbdf-1c29-0e32-7f8b-76c46bb08ac9.json</t>
+  </si>
+  <si>
     <t>ef43bbdf-1c29-0e32-7f8b-76c46bb08ac9</t>
   </si>
   <si>
@@ -365,6 +380,9 @@
     <t>13</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c7223e6a-6626-4b50-617d-6381cc364bac.json</t>
+  </si>
+  <si>
     <t>c7223e6a-6626-4b50-617d-6381cc364bac</t>
   </si>
   <si>
@@ -407,6 +425,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/f79f61a1-67a9-7e2b-1795-1e07fb6f373c.json</t>
+  </si>
+  <si>
     <t>f79f61a1-67a9-7e2b-1795-1e07fb6f373c</t>
   </si>
   <si>
@@ -443,6 +464,9 @@
     <t>15</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/be3b5264-4d5f-166e-94b2-20138b496cf6.json</t>
+  </si>
+  <si>
     <t>be3b5264-4d5f-166e-94b2-20138b496cf6</t>
   </si>
   <si>
@@ -482,6 +506,9 @@
     <t>16</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/89f8eb95-211d-0f04-a79b-bd2f8bd4465f.json</t>
+  </si>
+  <si>
     <t>89f8eb95-211d-0f04-a79b-bd2f8bd4465f</t>
   </si>
   <si>
@@ -524,6 +551,9 @@
     <t>17</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5fd91e88-48cd-7a10-449e-72ffdfa37b68.json</t>
+  </si>
+  <si>
     <t>5fd91e88-48cd-7a10-449e-72ffdfa37b68</t>
   </si>
   <si>
@@ -560,6 +590,9 @@
     <t>18</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c381cd73-1131-575f-95be-bd92159c5334.json</t>
+  </si>
+  <si>
     <t>c381cd73-1131-575f-95be-bd92159c5334</t>
   </si>
   <si>
@@ -599,6 +632,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d8273b57-732e-160d-17b2-149b20967c70.json</t>
+  </si>
+  <si>
     <t>d8273b57-732e-160d-17b2-149b20967c70</t>
   </si>
   <si>
@@ -635,6 +671,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b4093e0d-6e3d-2c59-43f9-07fb7ac3365a.json</t>
+  </si>
+  <si>
     <t>b4093e0d-6e3d-2c59-43f9-07fb7ac3365a</t>
   </si>
   <si>
@@ -671,6 +710,9 @@
     <t>20</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2d043411-3742-4133-62f0-3307a8c22ca2.json</t>
+  </si>
+  <si>
     <t>2d043411-3742-4133-62f0-3307a8c22ca2</t>
   </si>
   <si>
@@ -707,6 +749,9 @@
     <t>21</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/559eaffd-1492-1b94-6175-fb2f6da3a5a2.json</t>
+  </si>
+  <si>
     <t>559eaffd-1492-1b94-6175-fb2f6da3a5a2</t>
   </si>
   <si>
@@ -743,6 +788,9 @@
     <t>22</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/6bc3fe2b-2cd7-7a63-5f5d-c8921e481716.json</t>
+  </si>
+  <si>
     <t>6bc3fe2b-2cd7-7a63-5f5d-c8921e481716</t>
   </si>
   <si>
@@ -779,6 +827,9 @@
     <t>23</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/74921972-a6fb-1735-26a3-300698aa6097.json</t>
+  </si>
+  <si>
     <t>74921972-a6fb-1735-26a3-300698aa6097</t>
   </si>
   <si>
@@ -821,6 +872,9 @@
     <t>24</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/34b8cd0d-1edc-a011-6721-dd687954576b.json</t>
+  </si>
+  <si>
     <t>34b8cd0d-1edc-a011-6721-dd687954576b</t>
   </si>
   <si>
@@ -857,6 +911,9 @@
     <t>25</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5b7803ad-8f74-0ea3-6152-6b789fbf2c4f.json</t>
+  </si>
+  <si>
     <t>5b7803ad-8f74-0ea3-6152-6b789fbf2c4f</t>
   </si>
   <si>
@@ -890,6 +947,9 @@
     <t>26</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5aa5004e-495f-367a-8154-181062d29803.json</t>
+  </si>
+  <si>
     <t>5aa5004e-495f-367a-8154-181062d29803</t>
   </si>
   <si>
@@ -932,6 +992,9 @@
     <t>27</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c633cae1-2aab-2528-630b-8ae1deb27ce5.json</t>
+  </si>
+  <si>
     <t>c633cae1-2aab-2528-630b-8ae1deb27ce5</t>
   </si>
   <si>
@@ -968,6 +1031,9 @@
     <t>28</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d3466cbc-6ea8-65ae-a156-d0da0e0f4172.json</t>
+  </si>
+  <si>
     <t>d3466cbc-6ea8-65ae-a156-d0da0e0f4172</t>
   </si>
   <si>
@@ -1001,6 +1067,9 @@
     <t>29</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c7db9875-0774-398d-5be0-a166d2c6a609.json</t>
+  </si>
+  <si>
     <t>c7db9875-0774-398d-5be0-a166d2c6a609</t>
   </si>
   <si>
@@ -1037,6 +1106,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9e6d3fd2-7951-9c70-a546-dbcdce883757.json</t>
+  </si>
+  <si>
     <t>9e6d3fd2-7951-9c70-a546-dbcdce883757</t>
   </si>
   <si>
@@ -1073,6 +1145,9 @@
     <t>30</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/cde06131-a4a3-60e7-9a75-d711a2dd312e.json</t>
+  </si>
+  <si>
     <t>cde06131-a4a3-60e7-9a75-d711a2dd312e</t>
   </si>
   <si>
@@ -1109,6 +1184,9 @@
     <t>31</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/da89fb79-8e73-6252-0a92-f7883c5324bd.json</t>
+  </si>
+  <si>
     <t>da89fb79-8e73-6252-0a92-f7883c5324bd</t>
   </si>
   <si>
@@ -1145,6 +1223,9 @@
     <t>32</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/78433183-7857-1c61-65a9-fca501059705.json</t>
+  </si>
+  <si>
     <t>78433183-7857-1c61-65a9-fca501059705</t>
   </si>
   <si>
@@ -1181,6 +1262,9 @@
     <t>33</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/16aaa071-3d67-855e-175e-ef30149434bb.json</t>
+  </si>
+  <si>
     <t>16aaa071-3d67-855e-175e-ef30149434bb</t>
   </si>
   <si>
@@ -1217,6 +1301,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9902e869-01e1-2df4-964f-a2e66d0a31f6.json</t>
+  </si>
+  <si>
     <t>9902e869-01e1-2df4-964f-a2e66d0a31f6</t>
   </si>
   <si>
@@ -1256,6 +1343,9 @@
     <t>5</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/dc2fda64-8660-40e8-3f82-543ff5306baf.json</t>
+  </si>
+  <si>
     <t>dc2fda64-8660-40e8-3f82-543ff5306baf</t>
   </si>
   <si>
@@ -1295,6 +1385,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a9145383-0c17-641e-9593-8a774f1a978c.json</t>
+  </si>
+  <si>
     <t>a9145383-0c17-641e-9593-8a774f1a978c</t>
   </si>
   <si>
@@ -1334,6 +1427,9 @@
     <t>7</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2b227d36-9e56-4e85-6321-889676e15fdd.json</t>
+  </si>
+  <si>
     <t>2b227d36-9e56-4e85-6321-889676e15fdd</t>
   </si>
   <si>
@@ -1370,6 +1466,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/0f5d6c1e-78a1-5fec-8935-8dc8cf2d7146.json</t>
+  </si>
+  <si>
     <t>0f5d6c1e-78a1-5fec-8935-8dc8cf2d7146</t>
   </si>
   <si>
@@ -1401,6 +1500,9 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/230143a6-7fdf-37a3-91d7-e1fff9d35c0b.json</t>
   </si>
   <si>
     <t>230143a6-7fdf-37a3-91d7-e1fff9d35c0b</t>
@@ -1751,7 +1853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1759,7 +1861,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1844,43 +1946,46 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
@@ -1927,2265 +2032,2367 @@
       <c r="AA2" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" t="n">
         <v>1098</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s"/>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s">
         <v>69</v>
       </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s">
+      <c r="R3" t="s">
         <v>70</v>
       </c>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s">
+      <c r="S3" t="s"/>
+      <c r="T3" t="s">
         <v>71</v>
       </c>
-      <c r="X3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s">
+        <v>73</v>
+      </c>
       <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
       <c r="AA3" t="s"/>
-      <c r="AB3" t="n">
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s"/>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="R4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s">
+        <v>87</v>
+      </c>
       <c r="Y4" t="s"/>
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
-      <c r="AB4" t="n">
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s"/>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s">
-        <v>96</v>
-      </c>
-      <c r="X5" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="R5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s"/>
+      <c r="V5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s">
+        <v>100</v>
+      </c>
       <c r="Y5" t="s"/>
       <c r="Z5" t="s"/>
       <c r="AA5" t="s"/>
-      <c r="AB5" t="n">
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s"/>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s"/>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="Q6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s">
-        <v>69</v>
-      </c>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s">
-        <v>108</v>
-      </c>
-      <c r="X6" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="R6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s"/>
+      <c r="V6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s">
+        <v>113</v>
+      </c>
       <c r="Y6" t="s"/>
       <c r="Z6" t="s"/>
       <c r="AA6" t="s"/>
-      <c r="AB6" t="n">
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s"/>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s">
-        <v>120</v>
-      </c>
-      <c r="X7" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="R7" t="s">
+        <v>125</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s"/>
+      <c r="V7" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s">
+        <v>126</v>
+      </c>
       <c r="Y7" t="s"/>
       <c r="Z7" t="s"/>
       <c r="AA7" t="s"/>
-      <c r="AB7" t="n">
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="Q8" t="s">
-        <v>133</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s">
-        <v>69</v>
-      </c>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s">
-        <v>70</v>
-      </c>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X8" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="R8" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s"/>
+      <c r="V8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s">
+        <v>141</v>
+      </c>
       <c r="Y8" t="s"/>
       <c r="Z8" t="s"/>
       <c r="AA8" t="s"/>
-      <c r="AB8" t="n">
+      <c r="AB8" t="s"/>
+      <c r="AC8" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s"/>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s"/>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="N9" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="Q9" t="s">
-        <v>145</v>
-      </c>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s">
-        <v>146</v>
-      </c>
-      <c r="X9" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="R9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s"/>
+      <c r="V9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s">
+        <v>154</v>
+      </c>
       <c r="Y9" t="s"/>
       <c r="Z9" t="s"/>
       <c r="AA9" t="s"/>
-      <c r="AB9" t="n">
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s"/>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="N10" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="Q10" t="s">
-        <v>158</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s">
-        <v>69</v>
-      </c>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X10" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="R10" t="s">
+        <v>167</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" t="s"/>
+      <c r="V10" t="s">
+        <v>72</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s">
+        <v>168</v>
+      </c>
       <c r="Y10" t="s"/>
       <c r="Z10" t="s"/>
       <c r="AA10" t="s"/>
-      <c r="AB10" t="n">
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s"/>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L11" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="N11" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="Q11" t="s">
-        <v>172</v>
-      </c>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s">
-        <v>70</v>
-      </c>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s">
-        <v>173</v>
-      </c>
-      <c r="X11" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="R11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s">
+        <v>71</v>
+      </c>
+      <c r="U11" t="s"/>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s">
+        <v>183</v>
+      </c>
       <c r="Y11" t="s"/>
       <c r="Z11" t="s"/>
       <c r="AA11" t="s"/>
-      <c r="AB11" t="n">
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s"/>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="I12" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="N12" t="s">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="Q12" t="s">
-        <v>184</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s">
-        <v>69</v>
-      </c>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s">
-        <v>185</v>
-      </c>
-      <c r="X12" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="R12" t="s">
+        <v>195</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s"/>
+      <c r="V12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s">
+        <v>196</v>
+      </c>
       <c r="Y12" t="s"/>
       <c r="Z12" t="s"/>
       <c r="AA12" t="s"/>
-      <c r="AB12" t="n">
+      <c r="AB12" t="s"/>
+      <c r="AC12" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s"/>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="I13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="N13" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="Q13" t="s">
-        <v>197</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s">
-        <v>69</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s">
-        <v>70</v>
-      </c>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s">
-        <v>198</v>
-      </c>
-      <c r="X13" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="R13" t="s">
+        <v>209</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s"/>
+      <c r="V13" t="s">
+        <v>72</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s">
+        <v>210</v>
+      </c>
       <c r="Y13" t="s"/>
       <c r="Z13" t="s"/>
       <c r="AA13" t="s"/>
-      <c r="AB13" t="n">
+      <c r="AB13" t="s"/>
+      <c r="AC13" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F14" t="s"/>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="I14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="L14" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="N14" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="Q14" t="s">
-        <v>209</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s">
-        <v>69</v>
-      </c>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s">
-        <v>70</v>
-      </c>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s">
-        <v>210</v>
-      </c>
-      <c r="X14" t="s"/>
+        <v>221</v>
+      </c>
+      <c r="R14" t="s">
+        <v>222</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s"/>
+      <c r="V14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s">
+        <v>223</v>
+      </c>
       <c r="Y14" t="s"/>
       <c r="Z14" t="s"/>
       <c r="AA14" t="s"/>
-      <c r="AB14" t="n">
+      <c r="AB14" t="s"/>
+      <c r="AC14" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="s"/>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="I15" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="J15" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="K15" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="L15" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="N15" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="Q15" t="s">
-        <v>221</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s">
-        <v>69</v>
-      </c>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s">
-        <v>70</v>
-      </c>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s">
-        <v>222</v>
-      </c>
-      <c r="X15" t="s"/>
+        <v>234</v>
+      </c>
+      <c r="R15" t="s">
+        <v>235</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" t="s"/>
+      <c r="V15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s">
+        <v>236</v>
+      </c>
       <c r="Y15" t="s"/>
       <c r="Z15" t="s"/>
       <c r="AA15" t="s"/>
-      <c r="AB15" t="n">
+      <c r="AB15" t="s"/>
+      <c r="AC15" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s"/>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F16" t="s"/>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="I16" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="L16" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="M16" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="N16" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="P16" t="s">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="Q16" t="s">
-        <v>233</v>
-      </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s">
-        <v>69</v>
-      </c>
-      <c r="T16" t="s"/>
-      <c r="U16" t="s">
-        <v>70</v>
-      </c>
-      <c r="V16" t="s"/>
-      <c r="W16" t="s">
-        <v>234</v>
-      </c>
-      <c r="X16" t="s"/>
+        <v>247</v>
+      </c>
+      <c r="R16" t="s">
+        <v>248</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s">
+        <v>72</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s">
+        <v>249</v>
+      </c>
       <c r="Y16" t="s"/>
       <c r="Z16" t="s"/>
       <c r="AA16" t="s"/>
-      <c r="AB16" t="n">
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s"/>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F17" t="s"/>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="I17" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L17" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="N17" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="Q17" t="s">
-        <v>245</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s">
-        <v>69</v>
-      </c>
-      <c r="T17" t="s"/>
-      <c r="U17" t="s">
-        <v>70</v>
-      </c>
-      <c r="V17" t="s"/>
-      <c r="W17" t="s">
-        <v>246</v>
-      </c>
-      <c r="X17" t="s"/>
+        <v>260</v>
+      </c>
+      <c r="R17" t="s">
+        <v>261</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s"/>
+      <c r="V17" t="s">
+        <v>72</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s">
+        <v>262</v>
+      </c>
       <c r="Y17" t="s"/>
       <c r="Z17" t="s"/>
       <c r="AA17" t="s"/>
-      <c r="AB17" t="n">
+      <c r="AB17" t="s"/>
+      <c r="AC17" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F18" t="s"/>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="I18" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="L18" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>271</v>
       </c>
       <c r="N18" t="s">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
       <c r="Q18" t="s">
-        <v>257</v>
-      </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s">
-        <v>69</v>
-      </c>
-      <c r="T18" t="s"/>
-      <c r="U18" t="s">
-        <v>70</v>
-      </c>
-      <c r="V18" t="s"/>
-      <c r="W18" t="s">
-        <v>258</v>
-      </c>
-      <c r="X18" t="s"/>
+        <v>273</v>
+      </c>
+      <c r="R18" t="s">
+        <v>274</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s">
+        <v>71</v>
+      </c>
+      <c r="U18" t="s"/>
+      <c r="V18" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s">
+        <v>275</v>
+      </c>
       <c r="Y18" t="s"/>
       <c r="Z18" t="s"/>
       <c r="AA18" t="s"/>
-      <c r="AB18" t="n">
+      <c r="AB18" t="s"/>
+      <c r="AC18" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F19" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G19" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="I19" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="L19" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>286</v>
       </c>
       <c r="N19" t="s">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="P19" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="Q19" t="s">
-        <v>271</v>
-      </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s">
-        <v>69</v>
-      </c>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s">
-        <v>70</v>
-      </c>
-      <c r="V19" t="s"/>
-      <c r="W19" t="s">
-        <v>272</v>
-      </c>
-      <c r="X19" t="s"/>
+        <v>288</v>
+      </c>
+      <c r="R19" t="s">
+        <v>289</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s">
+        <v>71</v>
+      </c>
+      <c r="U19" t="s"/>
+      <c r="V19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s">
+        <v>290</v>
+      </c>
       <c r="Y19" t="s"/>
       <c r="Z19" t="s"/>
       <c r="AA19" t="s"/>
-      <c r="AB19" t="n">
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="E20" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s"/>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="I20" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="M20" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="N20" t="s">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>300</v>
       </c>
       <c r="P20" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="Q20" t="s">
-        <v>283</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s">
-        <v>69</v>
-      </c>
-      <c r="T20" t="s"/>
-      <c r="U20" t="s">
-        <v>70</v>
-      </c>
-      <c r="V20" t="s"/>
-      <c r="W20" t="s">
-        <v>284</v>
-      </c>
-      <c r="X20" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="R20" t="s">
+        <v>302</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s"/>
+      <c r="V20" t="s">
+        <v>72</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s">
+        <v>303</v>
+      </c>
       <c r="Y20" t="s"/>
       <c r="Z20" t="s"/>
       <c r="AA20" t="s"/>
-      <c r="AB20" t="n">
+      <c r="AB20" t="s"/>
+      <c r="AC20" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="F21" t="s"/>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="I21" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="L21" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="N21" t="s">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="P21" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="Q21" t="s">
-        <v>294</v>
-      </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s">
-        <v>69</v>
-      </c>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s">
-        <v>70</v>
-      </c>
-      <c r="V21" t="s"/>
-      <c r="W21" t="s">
-        <v>295</v>
-      </c>
-      <c r="X21" t="s"/>
+        <v>313</v>
+      </c>
+      <c r="R21" t="s">
+        <v>314</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s"/>
+      <c r="V21" t="s">
+        <v>72</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s">
+        <v>315</v>
+      </c>
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
       <c r="AA21" t="s"/>
-      <c r="AB21" t="n">
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F22" t="s"/>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="I22" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="J22" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="K22" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="L22" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="M22" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="N22" t="s">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="P22" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="Q22" t="s">
-        <v>308</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s">
-        <v>69</v>
-      </c>
-      <c r="T22" t="s"/>
-      <c r="U22" t="s">
-        <v>70</v>
-      </c>
-      <c r="V22" t="s"/>
-      <c r="W22" t="s">
-        <v>309</v>
-      </c>
-      <c r="X22" t="s"/>
+        <v>328</v>
+      </c>
+      <c r="R22" t="s">
+        <v>329</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s"/>
+      <c r="V22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s">
+        <v>330</v>
+      </c>
       <c r="Y22" t="s"/>
       <c r="Z22" t="s"/>
       <c r="AA22" t="s"/>
-      <c r="AB22" t="n">
+      <c r="AB22" t="s"/>
+      <c r="AC22" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="C23" t="s"/>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="E23" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="F23" t="s"/>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="I23" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="L23" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="M23" t="s">
-        <v>64</v>
+        <v>339</v>
       </c>
       <c r="N23" t="s">
-        <v>318</v>
+        <v>66</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="P23" t="s">
-        <v>319</v>
+        <v>68</v>
       </c>
       <c r="Q23" t="s">
-        <v>320</v>
-      </c>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s">
-        <v>69</v>
-      </c>
-      <c r="T23" t="s"/>
-      <c r="U23" t="s">
-        <v>70</v>
-      </c>
-      <c r="V23" t="s"/>
-      <c r="W23" t="s">
-        <v>321</v>
-      </c>
-      <c r="X23" t="s"/>
+        <v>341</v>
+      </c>
+      <c r="R23" t="s">
+        <v>342</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s"/>
+      <c r="V23" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s">
+        <v>343</v>
+      </c>
       <c r="Y23" t="s"/>
       <c r="Z23" t="s"/>
       <c r="AA23" t="s"/>
-      <c r="AB23" t="n">
+      <c r="AB23" t="s"/>
+      <c r="AC23" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C24" t="s"/>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s"/>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="I24" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="J24" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="L24" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="M24" t="s">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="N24" t="s">
-        <v>329</v>
+        <v>66</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>352</v>
       </c>
       <c r="P24" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
       <c r="Q24" t="s">
-        <v>331</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s">
-        <v>69</v>
-      </c>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s">
-        <v>70</v>
-      </c>
-      <c r="V24" t="s"/>
-      <c r="W24" t="s">
-        <v>332</v>
-      </c>
-      <c r="X24" t="s"/>
+        <v>353</v>
+      </c>
+      <c r="R24" t="s">
+        <v>354</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s">
+        <v>71</v>
+      </c>
+      <c r="U24" t="s"/>
+      <c r="V24" t="s">
+        <v>72</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s">
+        <v>355</v>
+      </c>
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
       <c r="AA24" t="s"/>
-      <c r="AB24" t="n">
+      <c r="AB24" t="s"/>
+      <c r="AC24" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s"/>
       <c r="D25" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="E25" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="F25" t="s"/>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="I25" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="L25" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="M25" t="s">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="N25" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="P25" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="Q25" t="s">
-        <v>343</v>
-      </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s">
-        <v>69</v>
-      </c>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s">
-        <v>70</v>
-      </c>
-      <c r="V25" t="s"/>
-      <c r="W25" t="s">
-        <v>344</v>
-      </c>
-      <c r="X25" t="s"/>
+        <v>366</v>
+      </c>
+      <c r="R25" t="s">
+        <v>367</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s">
+        <v>71</v>
+      </c>
+      <c r="U25" t="s"/>
+      <c r="V25" t="s">
+        <v>72</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s">
+        <v>368</v>
+      </c>
       <c r="Y25" t="s"/>
       <c r="Z25" t="s"/>
       <c r="AA25" t="s"/>
-      <c r="AB25" t="n">
+      <c r="AB25" t="s"/>
+      <c r="AC25" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="B26" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="C26" t="s"/>
       <c r="D26" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="E26" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="F26" t="s"/>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="I26" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="L26" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="M26" t="s">
-        <v>64</v>
+        <v>377</v>
       </c>
       <c r="N26" t="s">
-        <v>353</v>
+        <v>66</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="P26" t="s">
-        <v>354</v>
+        <v>68</v>
       </c>
       <c r="Q26" t="s">
-        <v>355</v>
-      </c>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s">
-        <v>69</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s">
-        <v>70</v>
-      </c>
-      <c r="V26" t="s"/>
-      <c r="W26" t="s">
-        <v>356</v>
-      </c>
-      <c r="X26" t="s"/>
+        <v>379</v>
+      </c>
+      <c r="R26" t="s">
+        <v>380</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s">
+        <v>71</v>
+      </c>
+      <c r="U26" t="s"/>
+      <c r="V26" t="s">
+        <v>72</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s">
+        <v>381</v>
+      </c>
       <c r="Y26" t="s"/>
       <c r="Z26" t="s"/>
       <c r="AA26" t="s"/>
-      <c r="AB26" t="n">
+      <c r="AB26" t="s"/>
+      <c r="AC26" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="B27" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s"/>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="E27" t="s"/>
       <c r="F27" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="I27" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="L27" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="M27" t="s">
-        <v>64</v>
+        <v>390</v>
       </c>
       <c r="N27" t="s">
-        <v>365</v>
+        <v>66</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>391</v>
       </c>
       <c r="P27" t="s">
-        <v>366</v>
+        <v>68</v>
       </c>
       <c r="Q27" t="s">
-        <v>367</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s">
-        <v>69</v>
-      </c>
-      <c r="T27" t="s"/>
-      <c r="U27" t="s">
-        <v>70</v>
-      </c>
-      <c r="V27" t="s"/>
-      <c r="W27" t="s">
-        <v>368</v>
-      </c>
-      <c r="X27" t="s"/>
+        <v>392</v>
+      </c>
+      <c r="R27" t="s">
+        <v>393</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s">
+        <v>71</v>
+      </c>
+      <c r="U27" t="s"/>
+      <c r="V27" t="s">
+        <v>72</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s">
+        <v>394</v>
+      </c>
       <c r="Y27" t="s"/>
       <c r="Z27" t="s"/>
       <c r="AA27" t="s"/>
-      <c r="AB27" t="n">
+      <c r="AB27" t="s"/>
+      <c r="AC27" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B28" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="C28" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="D28" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s"/>
       <c r="G28" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="H28" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="I28" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="L28" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="M28" t="s">
-        <v>64</v>
+        <v>403</v>
       </c>
       <c r="N28" t="s">
-        <v>377</v>
+        <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>404</v>
       </c>
       <c r="P28" t="s">
-        <v>378</v>
+        <v>68</v>
       </c>
       <c r="Q28" t="s">
-        <v>379</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s">
-        <v>69</v>
-      </c>
-      <c r="T28" t="s"/>
-      <c r="U28" t="s">
-        <v>70</v>
-      </c>
-      <c r="V28" t="s"/>
-      <c r="W28" t="s">
-        <v>380</v>
-      </c>
-      <c r="X28" t="s"/>
+        <v>405</v>
+      </c>
+      <c r="R28" t="s">
+        <v>406</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s"/>
+      <c r="V28" t="s">
+        <v>72</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s">
+        <v>407</v>
+      </c>
       <c r="Y28" t="s"/>
       <c r="Z28" t="s"/>
       <c r="AA28" t="s"/>
-      <c r="AB28" t="n">
+      <c r="AB28" t="s"/>
+      <c r="AC28" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s"/>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="H29" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="I29" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="J29" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="K29" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="L29" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="M29" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
       <c r="N29" t="s">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
       <c r="P29" t="s">
-        <v>390</v>
+        <v>68</v>
       </c>
       <c r="Q29" t="s">
-        <v>391</v>
-      </c>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s">
-        <v>69</v>
-      </c>
-      <c r="T29" t="s"/>
-      <c r="U29" t="s">
-        <v>70</v>
-      </c>
-      <c r="V29" t="s"/>
-      <c r="W29" t="s">
-        <v>392</v>
-      </c>
-      <c r="X29" t="s"/>
+        <v>418</v>
+      </c>
+      <c r="R29" t="s">
+        <v>419</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s">
+        <v>71</v>
+      </c>
+      <c r="U29" t="s"/>
+      <c r="V29" t="s">
+        <v>72</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s">
+        <v>420</v>
+      </c>
       <c r="Y29" t="s"/>
       <c r="Z29" t="s"/>
       <c r="AA29" t="s"/>
-      <c r="AB29" t="n">
+      <c r="AB29" t="s"/>
+      <c r="AC29" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="B30" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="C30" t="s"/>
       <c r="D30" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="E30" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="F30" t="s"/>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="I30" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="L30" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="M30" t="s">
-        <v>64</v>
+        <v>429</v>
       </c>
       <c r="N30" t="s">
-        <v>401</v>
+        <v>66</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>430</v>
       </c>
       <c r="P30" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="Q30" t="s">
-        <v>403</v>
-      </c>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s">
-        <v>69</v>
-      </c>
-      <c r="T30" t="s"/>
-      <c r="U30" t="s">
-        <v>70</v>
-      </c>
-      <c r="V30" t="s"/>
-      <c r="W30" t="s">
-        <v>404</v>
-      </c>
-      <c r="X30" t="s"/>
+        <v>431</v>
+      </c>
+      <c r="R30" t="s">
+        <v>432</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s">
+        <v>71</v>
+      </c>
+      <c r="U30" t="s"/>
+      <c r="V30" t="s">
+        <v>72</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s">
+        <v>433</v>
+      </c>
       <c r="Y30" t="s"/>
       <c r="Z30" t="s"/>
       <c r="AA30" t="s"/>
-      <c r="AB30" t="n">
+      <c r="AB30" t="s"/>
+      <c r="AC30" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="B31" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="C31" t="s"/>
       <c r="D31" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="E31" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="F31" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="I31" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="J31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="L31" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="M31" t="s">
-        <v>64</v>
+        <v>443</v>
       </c>
       <c r="N31" t="s">
-        <v>414</v>
+        <v>66</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>444</v>
       </c>
       <c r="P31" t="s">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="Q31" t="s">
-        <v>416</v>
-      </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s">
-        <v>69</v>
-      </c>
-      <c r="T31" t="s"/>
-      <c r="U31" t="s">
-        <v>70</v>
-      </c>
-      <c r="V31" t="s"/>
-      <c r="W31" t="s">
-        <v>417</v>
-      </c>
-      <c r="X31" t="s"/>
+        <v>445</v>
+      </c>
+      <c r="R31" t="s">
+        <v>446</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U31" t="s"/>
+      <c r="V31" t="s">
+        <v>72</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s">
+        <v>447</v>
+      </c>
       <c r="Y31" t="s"/>
       <c r="Z31" t="s"/>
       <c r="AA31" t="s"/>
-      <c r="AB31" t="n">
+      <c r="AB31" t="s"/>
+      <c r="AC31" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="B32" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="C32" t="s"/>
       <c r="D32" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="E32" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="F32" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H32" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="I32" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="L32" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="M32" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="N32" t="s">
-        <v>427</v>
+        <v>66</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>458</v>
       </c>
       <c r="P32" t="s">
-        <v>428</v>
+        <v>68</v>
       </c>
       <c r="Q32" t="s">
-        <v>429</v>
-      </c>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s">
-        <v>69</v>
-      </c>
-      <c r="T32" t="s"/>
-      <c r="U32" t="s">
-        <v>70</v>
-      </c>
-      <c r="V32" t="s"/>
-      <c r="W32" t="s">
-        <v>430</v>
-      </c>
-      <c r="X32" t="s"/>
+        <v>459</v>
+      </c>
+      <c r="R32" t="s">
+        <v>460</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s"/>
+      <c r="V32" t="s">
+        <v>72</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s">
+        <v>461</v>
+      </c>
       <c r="Y32" t="s"/>
       <c r="Z32" t="s"/>
       <c r="AA32" t="s"/>
-      <c r="AB32" t="n">
+      <c r="AB32" t="s"/>
+      <c r="AC32" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="B33" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="C33" t="s"/>
       <c r="D33" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="E33" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="F33" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="I33" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="L33" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="M33" t="s">
-        <v>64</v>
+        <v>471</v>
       </c>
       <c r="N33" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="O33" t="s">
-        <v>66</v>
+        <v>472</v>
       </c>
       <c r="P33" t="s">
-        <v>441</v>
+        <v>68</v>
       </c>
       <c r="Q33" t="s">
-        <v>442</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s">
-        <v>69</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="s">
-        <v>70</v>
-      </c>
-      <c r="V33" t="s"/>
-      <c r="W33" t="s">
-        <v>443</v>
-      </c>
-      <c r="X33" t="s"/>
+        <v>473</v>
+      </c>
+      <c r="R33" t="s">
+        <v>474</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s">
+        <v>71</v>
+      </c>
+      <c r="U33" t="s"/>
+      <c r="V33" t="s">
+        <v>72</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s">
+        <v>475</v>
+      </c>
       <c r="Y33" t="s"/>
       <c r="Z33" t="s"/>
       <c r="AA33" t="s"/>
-      <c r="AB33" t="n">
+      <c r="AB33" t="s"/>
+      <c r="AC33" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B34" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C34" t="s"/>
       <c r="D34" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="E34" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="F34" t="s"/>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="I34" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="J34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K34" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="L34" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="M34" t="s">
-        <v>64</v>
+        <v>484</v>
       </c>
       <c r="N34" t="s">
-        <v>452</v>
+        <v>66</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>485</v>
       </c>
       <c r="P34" t="s">
-        <v>453</v>
+        <v>68</v>
       </c>
       <c r="Q34" t="s">
-        <v>454</v>
-      </c>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s">
-        <v>69</v>
-      </c>
-      <c r="T34" t="s"/>
-      <c r="U34" t="s">
-        <v>70</v>
-      </c>
-      <c r="V34" t="s"/>
-      <c r="W34" t="s">
-        <v>455</v>
-      </c>
-      <c r="X34" t="s"/>
+        <v>486</v>
+      </c>
+      <c r="R34" t="s">
+        <v>487</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s"/>
+      <c r="V34" t="s">
+        <v>72</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s">
+        <v>488</v>
+      </c>
       <c r="Y34" t="s"/>
       <c r="Z34" t="s"/>
       <c r="AA34" t="s"/>
-      <c r="AB34" t="n">
+      <c r="AB34" t="s"/>
+      <c r="AC34" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="B35" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="C35" t="s"/>
       <c r="D35" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s"/>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="I35" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="L35" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="M35" t="s">
-        <v>64</v>
+        <v>496</v>
       </c>
       <c r="N35" t="s">
-        <v>463</v>
+        <v>66</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
+        <v>497</v>
       </c>
       <c r="P35" t="s">
-        <v>464</v>
+        <v>68</v>
       </c>
       <c r="Q35" t="s">
-        <v>465</v>
-      </c>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s">
-        <v>69</v>
-      </c>
-      <c r="T35" t="s"/>
-      <c r="U35" t="s">
-        <v>70</v>
-      </c>
-      <c r="V35" t="s"/>
-      <c r="W35" t="s">
-        <v>466</v>
-      </c>
-      <c r="X35" t="s"/>
+        <v>498</v>
+      </c>
+      <c r="R35" t="s">
+        <v>499</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s"/>
+      <c r="V35" t="s">
+        <v>72</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s">
+        <v>500</v>
+      </c>
       <c r="Y35" t="s"/>
       <c r="Z35" t="s"/>
       <c r="AA35" t="s"/>
-      <c r="AB35" t="n">
+      <c r="AB35" t="s"/>
+      <c r="AC35" t="n">
         <v>53</v>
       </c>
     </row>

--- a/docs/collections/haikai/metadata/data.xlsx
+++ b/docs/collections/haikai/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t>書名</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/169756</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library, The University of Tokyo, JAPAN</t>
   </si>
   <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
@@ -2088,17 +2091,19 @@
       <c r="R3" t="s">
         <v>70</v>
       </c>
-      <c r="S3" t="s"/>
+      <c r="S3" t="s">
+        <v>71</v>
+      </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s"/>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
@@ -2110,66 +2115,68 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
         <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R4" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="S4" t="s">
+        <v>71</v>
+      </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s"/>
       <c r="V4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y4" t="s"/>
       <c r="Z4" t="s"/>
@@ -2181,66 +2188,68 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
         <v>58</v>
       </c>
       <c r="F5" t="s"/>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
         <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
         <v>68</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R5" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
+        <v>71</v>
+      </c>
       <c r="T5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s"/>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y5" t="s"/>
       <c r="Z5" t="s"/>
@@ -2252,66 +2261,68 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s"/>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s">
         <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P6" t="s">
         <v>68</v>
       </c>
       <c r="Q6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="S6" t="s">
+        <v>71</v>
+      </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s"/>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s"/>
       <c r="Z6" t="s"/>
@@ -2323,66 +2334,68 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s">
         <v>66</v>
       </c>
       <c r="O7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P7" t="s">
         <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="S7" t="s">
+        <v>71</v>
+      </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s"/>
       <c r="V7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y7" t="s"/>
       <c r="Z7" t="s"/>
@@ -2394,70 +2407,72 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
         <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N8" t="s">
         <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P8" t="s">
         <v>68</v>
       </c>
       <c r="Q8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R8" t="s">
-        <v>140</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="S8" t="s">
+        <v>71</v>
+      </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s"/>
       <c r="V8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y8" t="s"/>
       <c r="Z8" t="s"/>
@@ -2469,66 +2484,68 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s"/>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N9" t="s">
         <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P9" t="s">
         <v>68</v>
       </c>
       <c r="Q9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R9" t="s">
-        <v>153</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="S9" t="s">
+        <v>71</v>
+      </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s"/>
       <c r="V9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y9" t="s"/>
       <c r="Z9" t="s"/>
@@ -2540,68 +2557,70 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N10" t="s">
         <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" t="s">
         <v>68</v>
       </c>
       <c r="Q10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R10" t="s">
-        <v>167</v>
-      </c>
-      <c r="S10" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="S10" t="s">
+        <v>71</v>
+      </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s"/>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y10" t="s"/>
       <c r="Z10" t="s"/>
@@ -2613,68 +2632,70 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s"/>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
       </c>
       <c r="O11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P11" t="s">
         <v>68</v>
       </c>
       <c r="Q11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R11" t="s">
-        <v>182</v>
-      </c>
-      <c r="S11" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="S11" t="s">
+        <v>71</v>
+      </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s"/>
       <c r="V11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y11" t="s"/>
       <c r="Z11" t="s"/>
@@ -2686,66 +2707,68 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N12" t="s">
         <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P12" t="s">
         <v>68</v>
       </c>
       <c r="Q12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R12" t="s">
-        <v>195</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>196</v>
+      </c>
+      <c r="S12" t="s">
+        <v>71</v>
+      </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s"/>
       <c r="V12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y12" t="s"/>
       <c r="Z12" t="s"/>
@@ -2757,66 +2780,68 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s"/>
       <c r="G13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J13" t="s">
         <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N13" t="s">
         <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P13" t="s">
         <v>68</v>
       </c>
       <c r="Q13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R13" t="s">
-        <v>209</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="S13" t="s">
+        <v>71</v>
+      </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s"/>
       <c r="V13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y13" t="s"/>
       <c r="Z13" t="s"/>
@@ -2828,66 +2853,68 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N14" t="s">
         <v>66</v>
       </c>
       <c r="O14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P14" t="s">
         <v>68</v>
       </c>
       <c r="Q14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R14" t="s">
-        <v>222</v>
-      </c>
-      <c r="S14" t="s"/>
+        <v>223</v>
+      </c>
+      <c r="S14" t="s">
+        <v>71</v>
+      </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s"/>
       <c r="V14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y14" t="s"/>
       <c r="Z14" t="s"/>
@@ -2899,10 +2926,10 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="s"/>
@@ -2910,55 +2937,57 @@
         <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G15" t="s">
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N15" t="s">
         <v>66</v>
       </c>
       <c r="O15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P15" t="s">
         <v>68</v>
       </c>
       <c r="Q15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R15" t="s">
-        <v>235</v>
-      </c>
-      <c r="S15" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="S15" t="s">
+        <v>71</v>
+      </c>
       <c r="T15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s"/>
       <c r="V15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y15" t="s"/>
       <c r="Z15" t="s"/>
@@ -2970,66 +2999,68 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s"/>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N16" t="s">
         <v>66</v>
       </c>
       <c r="O16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P16" t="s">
         <v>68</v>
       </c>
       <c r="Q16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R16" t="s">
-        <v>248</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="S16" t="s">
+        <v>71</v>
+      </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s"/>
       <c r="V16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y16" t="s"/>
       <c r="Z16" t="s"/>
@@ -3041,66 +3072,68 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s"/>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s"/>
       <c r="G17" t="s">
         <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N17" t="s">
         <v>66</v>
       </c>
       <c r="O17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P17" t="s">
         <v>68</v>
       </c>
       <c r="Q17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R17" t="s">
-        <v>261</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>262</v>
+      </c>
+      <c r="S17" t="s">
+        <v>71</v>
+      </c>
       <c r="T17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s"/>
       <c r="V17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y17" t="s"/>
       <c r="Z17" t="s"/>
@@ -3112,66 +3145,68 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N18" t="s">
         <v>66</v>
       </c>
       <c r="O18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P18" t="s">
         <v>68</v>
       </c>
       <c r="Q18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R18" t="s">
-        <v>274</v>
-      </c>
-      <c r="S18" t="s"/>
+        <v>275</v>
+      </c>
+      <c r="S18" t="s">
+        <v>71</v>
+      </c>
       <c r="T18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s"/>
       <c r="V18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y18" t="s"/>
       <c r="Z18" t="s"/>
@@ -3183,68 +3218,70 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J19" t="s">
         <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N19" t="s">
         <v>66</v>
       </c>
       <c r="O19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P19" t="s">
         <v>68</v>
       </c>
       <c r="Q19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R19" t="s">
-        <v>289</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>290</v>
+      </c>
+      <c r="S19" t="s">
+        <v>71</v>
+      </c>
       <c r="T19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s"/>
       <c r="V19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y19" t="s"/>
       <c r="Z19" t="s"/>
@@ -3256,66 +3293,68 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J20" t="s">
         <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N20" t="s">
         <v>66</v>
       </c>
       <c r="O20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P20" t="s">
         <v>68</v>
       </c>
       <c r="Q20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R20" t="s">
-        <v>302</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>303</v>
+      </c>
+      <c r="S20" t="s">
+        <v>71</v>
+      </c>
       <c r="T20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s"/>
       <c r="V20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y20" t="s"/>
       <c r="Z20" t="s"/>
@@ -3327,66 +3366,68 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N21" t="s">
         <v>66</v>
       </c>
       <c r="O21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P21" t="s">
         <v>68</v>
       </c>
       <c r="Q21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R21" t="s">
-        <v>314</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>315</v>
+      </c>
+      <c r="S21" t="s">
+        <v>71</v>
+      </c>
       <c r="T21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s"/>
       <c r="V21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
@@ -3398,68 +3439,70 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N22" t="s">
         <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P22" t="s">
         <v>68</v>
       </c>
       <c r="Q22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R22" t="s">
-        <v>329</v>
-      </c>
-      <c r="S22" t="s"/>
+        <v>330</v>
+      </c>
+      <c r="S22" t="s">
+        <v>71</v>
+      </c>
       <c r="T22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s"/>
       <c r="V22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y22" t="s"/>
       <c r="Z22" t="s"/>
@@ -3471,66 +3514,68 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s"/>
       <c r="D23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J23" t="s">
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N23" t="s">
         <v>66</v>
       </c>
       <c r="O23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P23" t="s">
         <v>68</v>
       </c>
       <c r="Q23" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R23" t="s">
-        <v>342</v>
-      </c>
-      <c r="S23" t="s"/>
+        <v>343</v>
+      </c>
+      <c r="S23" t="s">
+        <v>71</v>
+      </c>
       <c r="T23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s"/>
       <c r="V23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y23" t="s"/>
       <c r="Z23" t="s"/>
@@ -3542,14 +3587,14 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C24" t="s"/>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -3559,49 +3604,51 @@
         <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N24" t="s">
         <v>66</v>
       </c>
       <c r="O24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P24" t="s">
         <v>68</v>
       </c>
       <c r="Q24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R24" t="s">
-        <v>354</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>355</v>
+      </c>
+      <c r="S24" t="s">
+        <v>71</v>
+      </c>
       <c r="T24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s"/>
       <c r="V24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
@@ -3613,66 +3660,68 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C25" t="s"/>
       <c r="D25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N25" t="s">
         <v>66</v>
       </c>
       <c r="O25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P25" t="s">
         <v>68</v>
       </c>
       <c r="Q25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R25" t="s">
-        <v>367</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>368</v>
+      </c>
+      <c r="S25" t="s">
+        <v>71</v>
+      </c>
       <c r="T25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s"/>
       <c r="V25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y25" t="s"/>
       <c r="Z25" t="s"/>
@@ -3684,66 +3733,68 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C26" t="s"/>
       <c r="D26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
       </c>
       <c r="O26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P26" t="s">
         <v>68</v>
       </c>
       <c r="Q26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R26" t="s">
-        <v>380</v>
-      </c>
-      <c r="S26" t="s"/>
+        <v>381</v>
+      </c>
+      <c r="S26" t="s">
+        <v>71</v>
+      </c>
       <c r="T26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s"/>
       <c r="V26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y26" t="s"/>
       <c r="Z26" t="s"/>
@@ -3755,66 +3806,68 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C27" t="s"/>
       <c r="D27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E27" t="s"/>
       <c r="F27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G27" t="s">
         <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N27" t="s">
         <v>66</v>
       </c>
       <c r="O27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P27" t="s">
         <v>68</v>
       </c>
       <c r="Q27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R27" t="s">
-        <v>393</v>
-      </c>
-      <c r="S27" t="s"/>
+        <v>394</v>
+      </c>
+      <c r="S27" t="s">
+        <v>71</v>
+      </c>
       <c r="T27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s"/>
       <c r="V27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y27" t="s"/>
       <c r="Z27" t="s"/>
@@ -3826,68 +3879,70 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B28" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" t="s">
         <v>396</v>
       </c>
-      <c r="C28" t="s">
-        <v>395</v>
-      </c>
       <c r="D28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" t="s"/>
       <c r="G28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N28" t="s">
         <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P28" t="s">
         <v>68</v>
       </c>
       <c r="Q28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R28" t="s">
-        <v>406</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>407</v>
+      </c>
+      <c r="S28" t="s">
+        <v>71</v>
+      </c>
       <c r="T28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s"/>
       <c r="V28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Y28" t="s"/>
       <c r="Z28" t="s"/>
@@ -3899,62 +3954,64 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C29" t="s"/>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H29" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I29" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J29" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K29" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L29" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>
       </c>
       <c r="O29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P29" t="s">
         <v>68</v>
       </c>
       <c r="Q29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R29" t="s">
-        <v>419</v>
-      </c>
-      <c r="S29" t="s"/>
+        <v>420</v>
+      </c>
+      <c r="S29" t="s">
+        <v>71</v>
+      </c>
       <c r="T29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s"/>
       <c r="V29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y29" t="s"/>
       <c r="Z29" t="s"/>
@@ -3966,66 +4023,68 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C30" t="s"/>
       <c r="D30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F30" t="s"/>
       <c r="G30" t="s">
         <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I30" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
       </c>
       <c r="O30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P30" t="s">
         <v>68</v>
       </c>
       <c r="Q30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R30" t="s">
-        <v>432</v>
-      </c>
-      <c r="S30" t="s"/>
+        <v>433</v>
+      </c>
+      <c r="S30" t="s">
+        <v>71</v>
+      </c>
       <c r="T30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s"/>
       <c r="V30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Y30" t="s"/>
       <c r="Z30" t="s"/>
@@ -4037,68 +4096,70 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C31" t="s"/>
       <c r="D31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G31" t="s">
         <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
       </c>
       <c r="O31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P31" t="s">
         <v>68</v>
       </c>
       <c r="Q31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R31" t="s">
-        <v>446</v>
-      </c>
-      <c r="S31" t="s"/>
+        <v>447</v>
+      </c>
+      <c r="S31" t="s">
+        <v>71</v>
+      </c>
       <c r="T31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s"/>
       <c r="V31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y31" t="s"/>
       <c r="Z31" t="s"/>
@@ -4110,68 +4171,70 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B32" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C32" t="s"/>
       <c r="D32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E32" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G32" t="s">
         <v>59</v>
       </c>
       <c r="H32" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I32" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L32" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M32" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N32" t="s">
         <v>66</v>
       </c>
       <c r="O32" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P32" t="s">
         <v>68</v>
       </c>
       <c r="Q32" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="R32" t="s">
-        <v>460</v>
-      </c>
-      <c r="S32" t="s"/>
+        <v>461</v>
+      </c>
+      <c r="S32" t="s">
+        <v>71</v>
+      </c>
       <c r="T32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s"/>
       <c r="V32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y32" t="s"/>
       <c r="Z32" t="s"/>
@@ -4183,68 +4246,70 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C33" t="s"/>
       <c r="D33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E33" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F33" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G33" t="s">
         <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I33" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L33" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M33" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N33" t="s">
         <v>66</v>
       </c>
       <c r="O33" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P33" t="s">
         <v>68</v>
       </c>
       <c r="Q33" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R33" t="s">
-        <v>474</v>
-      </c>
-      <c r="S33" t="s"/>
+        <v>475</v>
+      </c>
+      <c r="S33" t="s">
+        <v>71</v>
+      </c>
       <c r="T33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s"/>
       <c r="V33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Y33" t="s"/>
       <c r="Z33" t="s"/>
@@ -4256,66 +4321,68 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B34" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C34" t="s"/>
       <c r="D34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E34" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>59</v>
       </c>
       <c r="H34" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I34" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K34" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L34" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M34" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N34" t="s">
         <v>66</v>
       </c>
       <c r="O34" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P34" t="s">
         <v>68</v>
       </c>
       <c r="Q34" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="R34" t="s">
-        <v>487</v>
-      </c>
-      <c r="S34" t="s"/>
+        <v>488</v>
+      </c>
+      <c r="S34" t="s">
+        <v>71</v>
+      </c>
       <c r="T34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s"/>
       <c r="V34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Y34" t="s"/>
       <c r="Z34" t="s"/>
@@ -4327,14 +4394,14 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B35" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C35" t="s"/>
       <c r="D35" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
@@ -4344,49 +4411,51 @@
         <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L35" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M35" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N35" t="s">
         <v>66</v>
       </c>
       <c r="O35" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P35" t="s">
         <v>68</v>
       </c>
       <c r="Q35" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="R35" t="s">
-        <v>499</v>
-      </c>
-      <c r="S35" t="s"/>
+        <v>500</v>
+      </c>
+      <c r="S35" t="s">
+        <v>71</v>
+      </c>
       <c r="T35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s"/>
       <c r="V35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Y35" t="s"/>
       <c r="Z35" t="s"/>

--- a/docs/collections/haikai/metadata/data.xlsx
+++ b/docs/collections/haikai/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
   <si>
     <t>書名</t>
   </si>
@@ -1056,9 +1056,6 @@
   </si>
   <si>
     <t>ゼンコウジ キコウ</t>
-  </si>
-  <si>
-    <t>尭恵</t>
   </si>
   <si>
     <t>E32:546</t>
@@ -3593,9 +3590,7 @@
         <v>346</v>
       </c>
       <c r="C24" t="s"/>
-      <c r="D24" t="s">
-        <v>347</v>
-      </c>
+      <c r="D24" t="s"/>
       <c r="E24" t="s">
         <v>58</v>
       </c>
@@ -3604,37 +3599,37 @@
         <v>59</v>
       </c>
       <c r="H24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I24" t="s">
         <v>348</v>
-      </c>
-      <c r="I24" t="s">
-        <v>349</v>
       </c>
       <c r="J24" t="s">
         <v>177</v>
       </c>
       <c r="K24" t="s">
+        <v>349</v>
+      </c>
+      <c r="L24" t="s">
         <v>350</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>351</v>
-      </c>
-      <c r="M24" t="s">
-        <v>352</v>
       </c>
       <c r="N24" t="s">
         <v>66</v>
       </c>
       <c r="O24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P24" t="s">
         <v>68</v>
       </c>
       <c r="Q24" t="s">
+        <v>353</v>
+      </c>
+      <c r="R24" t="s">
         <v>354</v>
-      </c>
-      <c r="R24" t="s">
-        <v>355</v>
       </c>
       <c r="S24" t="s">
         <v>71</v>
@@ -3648,7 +3643,7 @@
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
@@ -3660,54 +3655,54 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" t="s">
         <v>357</v>
-      </c>
-      <c r="B25" t="s">
-        <v>358</v>
       </c>
       <c r="C25" t="s"/>
       <c r="D25" t="s">
+        <v>358</v>
+      </c>
+      <c r="E25" t="s">
         <v>359</v>
-      </c>
-      <c r="E25" t="s">
-        <v>360</v>
       </c>
       <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>59</v>
       </c>
       <c r="H25" t="s">
+        <v>360</v>
+      </c>
+      <c r="I25" t="s">
         <v>361</v>
-      </c>
-      <c r="I25" t="s">
-        <v>362</v>
       </c>
       <c r="J25" t="s">
         <v>81</v>
       </c>
       <c r="K25" t="s">
+        <v>362</v>
+      </c>
+      <c r="L25" t="s">
         <v>363</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>364</v>
-      </c>
-      <c r="M25" t="s">
-        <v>365</v>
       </c>
       <c r="N25" t="s">
         <v>66</v>
       </c>
       <c r="O25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P25" t="s">
         <v>68</v>
       </c>
       <c r="Q25" t="s">
+        <v>366</v>
+      </c>
+      <c r="R25" t="s">
         <v>367</v>
-      </c>
-      <c r="R25" t="s">
-        <v>368</v>
       </c>
       <c r="S25" t="s">
         <v>71</v>
@@ -3721,7 +3716,7 @@
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y25" t="s"/>
       <c r="Z25" t="s"/>
@@ -3733,54 +3728,54 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" t="s">
         <v>370</v>
-      </c>
-      <c r="B26" t="s">
-        <v>371</v>
       </c>
       <c r="C26" t="s"/>
       <c r="D26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26" t="s">
         <v>372</v>
-      </c>
-      <c r="E26" t="s">
-        <v>373</v>
       </c>
       <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>59</v>
       </c>
       <c r="H26" t="s">
+        <v>373</v>
+      </c>
+      <c r="I26" t="s">
         <v>374</v>
-      </c>
-      <c r="I26" t="s">
-        <v>375</v>
       </c>
       <c r="J26" t="s">
         <v>81</v>
       </c>
       <c r="K26" t="s">
+        <v>375</v>
+      </c>
+      <c r="L26" t="s">
         <v>376</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>377</v>
-      </c>
-      <c r="M26" t="s">
-        <v>378</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
       </c>
       <c r="O26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P26" t="s">
         <v>68</v>
       </c>
       <c r="Q26" t="s">
+        <v>379</v>
+      </c>
+      <c r="R26" t="s">
         <v>380</v>
-      </c>
-      <c r="R26" t="s">
-        <v>381</v>
       </c>
       <c r="S26" t="s">
         <v>71</v>
@@ -3794,7 +3789,7 @@
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Y26" t="s"/>
       <c r="Z26" t="s"/>
@@ -3806,54 +3801,54 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" t="s">
         <v>383</v>
-      </c>
-      <c r="B27" t="s">
-        <v>384</v>
       </c>
       <c r="C27" t="s"/>
       <c r="D27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E27" t="s"/>
       <c r="F27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G27" t="s">
         <v>59</v>
       </c>
       <c r="H27" t="s">
+        <v>386</v>
+      </c>
+      <c r="I27" t="s">
         <v>387</v>
-      </c>
-      <c r="I27" t="s">
-        <v>388</v>
       </c>
       <c r="J27" t="s">
         <v>81</v>
       </c>
       <c r="K27" t="s">
+        <v>388</v>
+      </c>
+      <c r="L27" t="s">
         <v>389</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>390</v>
-      </c>
-      <c r="M27" t="s">
-        <v>391</v>
       </c>
       <c r="N27" t="s">
         <v>66</v>
       </c>
       <c r="O27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P27" t="s">
         <v>68</v>
       </c>
       <c r="Q27" t="s">
+        <v>392</v>
+      </c>
+      <c r="R27" t="s">
         <v>393</v>
-      </c>
-      <c r="R27" t="s">
-        <v>394</v>
       </c>
       <c r="S27" t="s">
         <v>71</v>
@@ -3867,7 +3862,7 @@
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y27" t="s"/>
       <c r="Z27" t="s"/>
@@ -3879,56 +3874,56 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" t="s">
         <v>396</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" t="s">
         <v>397</v>
-      </c>
-      <c r="C28" t="s">
-        <v>396</v>
-      </c>
-      <c r="D28" t="s">
-        <v>398</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" t="s"/>
       <c r="G28" t="s">
+        <v>398</v>
+      </c>
+      <c r="H28" t="s">
         <v>399</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>400</v>
-      </c>
-      <c r="I28" t="s">
-        <v>401</v>
       </c>
       <c r="J28" t="s">
         <v>81</v>
       </c>
       <c r="K28" t="s">
+        <v>401</v>
+      </c>
+      <c r="L28" t="s">
         <v>402</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>403</v>
-      </c>
-      <c r="M28" t="s">
-        <v>404</v>
       </c>
       <c r="N28" t="s">
         <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P28" t="s">
         <v>68</v>
       </c>
       <c r="Q28" t="s">
+        <v>405</v>
+      </c>
+      <c r="R28" t="s">
         <v>406</v>
-      </c>
-      <c r="R28" t="s">
-        <v>407</v>
       </c>
       <c r="S28" t="s">
         <v>71</v>
@@ -3942,7 +3937,7 @@
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Y28" t="s"/>
       <c r="Z28" t="s"/>
@@ -3954,50 +3949,50 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B29" t="s">
         <v>409</v>
-      </c>
-      <c r="B29" t="s">
-        <v>410</v>
       </c>
       <c r="C29" t="s"/>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="s">
+        <v>410</v>
+      </c>
+      <c r="H29" t="s">
         <v>411</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>412</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>413</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>414</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>415</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>416</v>
-      </c>
-      <c r="M29" t="s">
-        <v>417</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>
       </c>
       <c r="O29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P29" t="s">
         <v>68</v>
       </c>
       <c r="Q29" t="s">
+        <v>418</v>
+      </c>
+      <c r="R29" t="s">
         <v>419</v>
-      </c>
-      <c r="R29" t="s">
-        <v>420</v>
       </c>
       <c r="S29" t="s">
         <v>71</v>
@@ -4011,7 +4006,7 @@
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Y29" t="s"/>
       <c r="Z29" t="s"/>
@@ -4023,54 +4018,54 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" t="s">
         <v>422</v>
-      </c>
-      <c r="B30" t="s">
-        <v>423</v>
       </c>
       <c r="C30" t="s"/>
       <c r="D30" t="s">
+        <v>423</v>
+      </c>
+      <c r="E30" t="s">
         <v>424</v>
-      </c>
-      <c r="E30" t="s">
-        <v>425</v>
       </c>
       <c r="F30" t="s"/>
       <c r="G30" t="s">
         <v>59</v>
       </c>
       <c r="H30" t="s">
+        <v>425</v>
+      </c>
+      <c r="I30" t="s">
         <v>426</v>
-      </c>
-      <c r="I30" t="s">
-        <v>427</v>
       </c>
       <c r="J30" t="s">
         <v>81</v>
       </c>
       <c r="K30" t="s">
+        <v>427</v>
+      </c>
+      <c r="L30" t="s">
         <v>428</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>429</v>
-      </c>
-      <c r="M30" t="s">
-        <v>430</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
       </c>
       <c r="O30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P30" t="s">
         <v>68</v>
       </c>
       <c r="Q30" t="s">
+        <v>431</v>
+      </c>
+      <c r="R30" t="s">
         <v>432</v>
-      </c>
-      <c r="R30" t="s">
-        <v>433</v>
       </c>
       <c r="S30" t="s">
         <v>71</v>
@@ -4084,7 +4079,7 @@
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y30" t="s"/>
       <c r="Z30" t="s"/>
@@ -4096,56 +4091,56 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" t="s">
         <v>435</v>
-      </c>
-      <c r="B31" t="s">
-        <v>436</v>
       </c>
       <c r="C31" t="s"/>
       <c r="D31" t="s">
+        <v>436</v>
+      </c>
+      <c r="E31" t="s">
         <v>437</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>438</v>
-      </c>
-      <c r="F31" t="s">
-        <v>439</v>
       </c>
       <c r="G31" t="s">
         <v>59</v>
       </c>
       <c r="H31" t="s">
+        <v>439</v>
+      </c>
+      <c r="I31" t="s">
         <v>440</v>
-      </c>
-      <c r="I31" t="s">
-        <v>441</v>
       </c>
       <c r="J31" t="s">
         <v>81</v>
       </c>
       <c r="K31" t="s">
+        <v>441</v>
+      </c>
+      <c r="L31" t="s">
         <v>442</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>443</v>
-      </c>
-      <c r="M31" t="s">
-        <v>444</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
       </c>
       <c r="O31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P31" t="s">
         <v>68</v>
       </c>
       <c r="Q31" t="s">
+        <v>445</v>
+      </c>
+      <c r="R31" t="s">
         <v>446</v>
-      </c>
-      <c r="R31" t="s">
-        <v>447</v>
       </c>
       <c r="S31" t="s">
         <v>71</v>
@@ -4159,7 +4154,7 @@
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y31" t="s"/>
       <c r="Z31" t="s"/>
@@ -4171,56 +4166,56 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" t="s">
         <v>449</v>
-      </c>
-      <c r="B32" t="s">
-        <v>450</v>
       </c>
       <c r="C32" t="s"/>
       <c r="D32" t="s">
+        <v>450</v>
+      </c>
+      <c r="E32" t="s">
         <v>451</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>452</v>
-      </c>
-      <c r="F32" t="s">
-        <v>453</v>
       </c>
       <c r="G32" t="s">
         <v>59</v>
       </c>
       <c r="H32" t="s">
+        <v>453</v>
+      </c>
+      <c r="I32" t="s">
         <v>454</v>
-      </c>
-      <c r="I32" t="s">
-        <v>455</v>
       </c>
       <c r="J32" t="s">
         <v>81</v>
       </c>
       <c r="K32" t="s">
+        <v>455</v>
+      </c>
+      <c r="L32" t="s">
         <v>456</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>457</v>
-      </c>
-      <c r="M32" t="s">
-        <v>458</v>
       </c>
       <c r="N32" t="s">
         <v>66</v>
       </c>
       <c r="O32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P32" t="s">
         <v>68</v>
       </c>
       <c r="Q32" t="s">
+        <v>459</v>
+      </c>
+      <c r="R32" t="s">
         <v>460</v>
-      </c>
-      <c r="R32" t="s">
-        <v>461</v>
       </c>
       <c r="S32" t="s">
         <v>71</v>
@@ -4234,7 +4229,7 @@
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y32" t="s"/>
       <c r="Z32" t="s"/>
@@ -4246,56 +4241,56 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
+        <v>462</v>
+      </c>
+      <c r="B33" t="s">
         <v>463</v>
-      </c>
-      <c r="B33" t="s">
-        <v>464</v>
       </c>
       <c r="C33" t="s"/>
       <c r="D33" t="s">
+        <v>464</v>
+      </c>
+      <c r="E33" t="s">
         <v>465</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>466</v>
-      </c>
-      <c r="F33" t="s">
-        <v>467</v>
       </c>
       <c r="G33" t="s">
         <v>59</v>
       </c>
       <c r="H33" t="s">
+        <v>467</v>
+      </c>
+      <c r="I33" t="s">
         <v>468</v>
-      </c>
-      <c r="I33" t="s">
-        <v>469</v>
       </c>
       <c r="J33" t="s">
         <v>81</v>
       </c>
       <c r="K33" t="s">
+        <v>469</v>
+      </c>
+      <c r="L33" t="s">
         <v>470</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>471</v>
-      </c>
-      <c r="M33" t="s">
-        <v>472</v>
       </c>
       <c r="N33" t="s">
         <v>66</v>
       </c>
       <c r="O33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P33" t="s">
         <v>68</v>
       </c>
       <c r="Q33" t="s">
+        <v>473</v>
+      </c>
+      <c r="R33" t="s">
         <v>474</v>
-      </c>
-      <c r="R33" t="s">
-        <v>475</v>
       </c>
       <c r="S33" t="s">
         <v>71</v>
@@ -4309,7 +4304,7 @@
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Y33" t="s"/>
       <c r="Z33" t="s"/>
@@ -4321,54 +4316,54 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
+        <v>476</v>
+      </c>
+      <c r="B34" t="s">
         <v>477</v>
-      </c>
-      <c r="B34" t="s">
-        <v>478</v>
       </c>
       <c r="C34" t="s"/>
       <c r="D34" t="s">
+        <v>478</v>
+      </c>
+      <c r="E34" t="s">
         <v>479</v>
-      </c>
-      <c r="E34" t="s">
-        <v>480</v>
       </c>
       <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>59</v>
       </c>
       <c r="H34" t="s">
+        <v>480</v>
+      </c>
+      <c r="I34" t="s">
         <v>481</v>
-      </c>
-      <c r="I34" t="s">
-        <v>482</v>
       </c>
       <c r="J34" t="s">
         <v>177</v>
       </c>
       <c r="K34" t="s">
+        <v>482</v>
+      </c>
+      <c r="L34" t="s">
         <v>483</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>484</v>
-      </c>
-      <c r="M34" t="s">
-        <v>485</v>
       </c>
       <c r="N34" t="s">
         <v>66</v>
       </c>
       <c r="O34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P34" t="s">
         <v>68</v>
       </c>
       <c r="Q34" t="s">
+        <v>486</v>
+      </c>
+      <c r="R34" t="s">
         <v>487</v>
-      </c>
-      <c r="R34" t="s">
-        <v>488</v>
       </c>
       <c r="S34" t="s">
         <v>71</v>
@@ -4382,7 +4377,7 @@
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Y34" t="s"/>
       <c r="Z34" t="s"/>
@@ -4394,14 +4389,14 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" t="s">
+        <v>489</v>
+      </c>
+      <c r="B35" t="s">
         <v>490</v>
-      </c>
-      <c r="B35" t="s">
-        <v>491</v>
       </c>
       <c r="C35" t="s"/>
       <c r="D35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
@@ -4411,37 +4406,37 @@
         <v>59</v>
       </c>
       <c r="H35" t="s">
+        <v>492</v>
+      </c>
+      <c r="I35" t="s">
         <v>493</v>
-      </c>
-      <c r="I35" t="s">
-        <v>494</v>
       </c>
       <c r="J35" t="s">
         <v>81</v>
       </c>
       <c r="K35" t="s">
+        <v>494</v>
+      </c>
+      <c r="L35" t="s">
         <v>495</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>496</v>
-      </c>
-      <c r="M35" t="s">
-        <v>497</v>
       </c>
       <c r="N35" t="s">
         <v>66</v>
       </c>
       <c r="O35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P35" t="s">
         <v>68</v>
       </c>
       <c r="Q35" t="s">
+        <v>498</v>
+      </c>
+      <c r="R35" t="s">
         <v>499</v>
-      </c>
-      <c r="R35" t="s">
-        <v>500</v>
       </c>
       <c r="S35" t="s">
         <v>71</v>
@@ -4455,7 +4450,7 @@
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Y35" t="s"/>
       <c r="Z35" t="s"/>
